--- a/students.xlsx
+++ b/students.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\FromGIT\acme_class\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="9045" activeTab="1"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Martes" sheetId="1" r:id="rId1"/>
     <sheet name="Lunes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Adriana Mora</t>
   </si>
@@ -114,15 +109,9 @@
     <t>Berman Romero</t>
   </si>
   <si>
-    <t>SD</t>
-  </si>
-  <si>
     <t>Caleb Briancessco</t>
   </si>
   <si>
-    <t>UX D</t>
-  </si>
-  <si>
     <t>Mario Gamboa</t>
   </si>
   <si>
@@ -130,6 +119,33 @@
   </si>
   <si>
     <t>Lead</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>SeniorDev</t>
+  </si>
+  <si>
+    <t>ScrumMaster</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>DBA</t>
+  </si>
+  <si>
+    <t>UX Dev</t>
+  </si>
+  <si>
+    <t>Techical Dev</t>
+  </si>
+  <si>
+    <t>Promedio</t>
   </si>
 </sst>
 </file>
@@ -200,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -212,9 +228,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -273,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,7 +325,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,7 +502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -493,21 +510,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -521,208 +540,307 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B2" s="6">
+        <v>68</v>
+      </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="B3" s="6">
+        <v>68</v>
+      </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3">
+        <f>SUM(B2:B25)/24</f>
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>66</v>
+      </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B5" s="6">
+        <v>66</v>
+      </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="B6" s="6">
+        <v>63</v>
+      </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B7" s="6">
+        <v>61</v>
+      </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="6">
+        <v>58</v>
+      </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6">
+        <v>55</v>
+      </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
+        <v>53</v>
+      </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6">
+        <v>53</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6">
+        <v>53</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="6">
+        <v>50</v>
+      </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B14" s="6">
+        <v>50</v>
+      </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="B15" s="6">
+        <v>47</v>
+      </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="B16" s="6">
+        <v>47</v>
+      </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="B17" s="6">
+        <v>37</v>
+      </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="6">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="6">
+        <v>16</v>
+      </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:A26">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:D26">
+    <sortCondition descending="1" ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -734,13 +852,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -758,36 +877,39 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>84</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="6">
+        <v>78</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" s="6">
+        <v>66</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <v>66</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/students.xlsx
+++ b/students.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\FromGIT\acme_class\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="9045" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Martes" sheetId="1" r:id="rId1"/>
     <sheet name="Lunes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -145,7 +150,7 @@
     <t>Techical Dev</t>
   </si>
   <si>
-    <t>Promedio</t>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -231,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,7 +507,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -512,11 +517,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" hidden="1" customWidth="1"/>
@@ -567,8 +572,8 @@
         <v>41</v>
       </c>
       <c r="H3">
-        <f>SUM(B2:B25)/24</f>
-        <v>39.5</v>
+        <f>SUM(B2:B25)/20</f>
+        <v>50.05</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -681,58 +686,58 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B13" s="6">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B14" s="6">
         <v>50</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B15" s="6">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="7" t="s">
-        <v>35</v>
+      <c r="D15" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B16" s="6">
         <v>47</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>37</v>
+      <c r="D16" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B17" s="6">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
@@ -741,7 +746,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B18" s="6">
         <v>37</v>
@@ -753,10 +758,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B19" s="6">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
@@ -765,31 +770,31 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B20" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" s="6">
         <v>0</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B22" s="6">
         <v>0</v>
@@ -801,14 +806,14 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -851,11 +856,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" hidden="1" customWidth="1"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>Adriana Mora</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Adrian Ortiz</t>
   </si>
 </sst>
 </file>
@@ -221,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -234,6 +237,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -515,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,65 +554,65 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6">
         <v>68</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
       </c>
       <c r="H3">
-        <f>SUM(B2:B25)/20</f>
-        <v>50.05</v>
+        <f>SUM(B2:B26)/21</f>
+        <v>53.904761904761905</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6">
         <v>66</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
@@ -614,34 +621,34 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
@@ -650,43 +657,43 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B11" s="6">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B12" s="6">
         <v>53</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B13" s="6">
         <v>53</v>
@@ -698,70 +705,70 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14" s="6">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="6">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B16" s="6">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="7" t="s">
-        <v>35</v>
+      <c r="D16" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B18" s="6">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>37</v>
+      <c r="D18" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B19" s="6">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
@@ -770,10 +777,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B20" s="6">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
@@ -782,69 +789,87 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B21" s="6">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B22" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B24" s="6">
         <v>0</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B25" s="6">
         <v>0</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D26">
+  <sortState ref="A2:D28">
     <sortCondition descending="1" ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="9045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Martes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>Adriana Mora</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Grade</t>
   </si>
   <si>
-    <t>Assitance</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
@@ -154,6 +151,72 @@
   </si>
   <si>
     <t>Adrian Ortiz</t>
+  </si>
+  <si>
+    <t>Manuel Azofeifa</t>
+  </si>
+  <si>
+    <t>Guillermo Vargas</t>
+  </si>
+  <si>
+    <t>Bernal Fernandez</t>
+  </si>
+  <si>
+    <t>Omar Rodriguez</t>
+  </si>
+  <si>
+    <t>Douglas Zuniga</t>
+  </si>
+  <si>
+    <t>Victor Mora</t>
+  </si>
+  <si>
+    <t>Andres Monge</t>
+  </si>
+  <si>
+    <t>Michael Martinez</t>
+  </si>
+  <si>
+    <t>Andrey Rojas</t>
+  </si>
+  <si>
+    <t>Hsu Yu Hsuan</t>
+  </si>
+  <si>
+    <t>Oriana Cisneros </t>
+  </si>
+  <si>
+    <t>Melany Delgado</t>
+  </si>
+  <si>
+    <t>Giney Rojas</t>
+  </si>
+  <si>
+    <t>Ivan Chavez</t>
+  </si>
+  <si>
+    <t>Guadalupe Campos</t>
+  </si>
+  <si>
+    <t>Marco Rodriguez</t>
+  </si>
+  <si>
+    <t>Luis Quesada</t>
+  </si>
+  <si>
+    <t>Cristopher Castillo </t>
+  </si>
+  <si>
+    <t>Graciela Paniagua</t>
+  </si>
+  <si>
+    <t>Senior Dev</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
   </si>
 </sst>
 </file>
@@ -522,23 +585,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -548,324 +610,295 @@
       <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="6">
         <v>71</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="6">
         <v>68</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3">
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3">
         <f>SUM(B2:B26)/21</f>
         <v>53.904761904761905</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="6">
         <v>68</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="6">
         <v>66</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="6">
         <v>66</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="6">
         <v>63</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="6">
         <v>61</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="6">
         <v>60</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
         <v>58</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="6">
         <v>55</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="6">
         <v>53</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="6">
         <v>53</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="6">
         <v>53</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="6">
         <v>53</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="6">
         <v>50</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="6">
         <v>50</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="6">
         <v>47</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="6">
         <v>47</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="6">
         <v>37</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="6">
         <v>37</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="6">
         <v>16</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="6">
         <v>0</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="6">
         <v>0</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="6">
         <v>0</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
   </sheetData>
@@ -879,20 +912,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -902,47 +936,214 @@
       <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B4" s="6">
+        <v>84</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="6">
-        <v>84</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B6" s="6">
+        <v>78</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="6">
-        <v>78</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B18" s="6">
+        <v>66</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="6">
-        <v>66</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
-        <v>31</v>
-      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
   </sheetData>
+  <sortState ref="A2:C28">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/students.xlsx
+++ b/students.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\FromGIT\acme_class\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection workbookPassword="D880" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="9045" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Martes" sheetId="1" r:id="rId1"/>
@@ -306,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -577,7 +573,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -587,11 +583,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" hidden="1" customWidth="1"/>
@@ -902,6 +898,7 @@
       <c r="A28" s="1"/>
     </row>
   </sheetData>
+  <sheetProtection password="D880" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <sortState ref="A2:D28">
     <sortCondition descending="1" ref="B1"/>
   </sortState>
@@ -914,11 +911,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" hidden="1" customWidth="1"/>
@@ -1140,6 +1137,7 @@
       <c r="C23" s="6"/>
     </row>
   </sheetData>
+  <sheetProtection password="D880" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <sortState ref="A2:C28">
     <sortCondition ref="A1"/>
   </sortState>

--- a/students.xlsx
+++ b/students.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Martes" sheetId="1" r:id="rId1"/>
     <sheet name="Lunes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>Adriana Mora</t>
   </si>
@@ -149,15 +149,9 @@
     <t>Adrian Ortiz</t>
   </si>
   <si>
-    <t>Manuel Azofeifa</t>
-  </si>
-  <si>
     <t>Guillermo Vargas</t>
   </si>
   <si>
-    <t>Bernal Fernandez</t>
-  </si>
-  <si>
     <t>Omar Rodriguez</t>
   </si>
   <si>
@@ -188,9 +182,6 @@
     <t>Giney Rojas</t>
   </si>
   <si>
-    <t>Ivan Chavez</t>
-  </si>
-  <si>
     <t>Guadalupe Campos</t>
   </si>
   <si>
@@ -209,10 +200,19 @@
     <t>Senior Dev</t>
   </si>
   <si>
-    <t>Manager</t>
-  </si>
-  <si>
     <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>84/71</t>
+  </si>
+  <si>
+    <t>68/53/0</t>
+  </si>
+  <si>
+    <t>Average:</t>
+  </si>
+  <si>
+    <t>Sin Opcional</t>
   </si>
 </sst>
 </file>
@@ -283,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -300,6 +300,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
@@ -573,7 +576,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -583,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,21 +912,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -933,213 +937,259 @@
       <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="B2" s="6">
+        <v>84</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="B3" s="6">
+        <v>84</v>
+      </c>
       <c r="C3" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="10">
         <v>84</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4">
+        <f>SUM(B2:B20)/19</f>
+        <v>63.05263157894737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="B5" s="10">
+        <v>82</v>
+      </c>
       <c r="C5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="10">
+        <v>82</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="6">
-        <v>78</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="B7" s="10">
+        <v>82</v>
+      </c>
       <c r="C7" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="6">
+        <v>76</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="6">
+        <v>74</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="6">
+        <v>71</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="6">
+        <v>71</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="10">
+        <v>71</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="6">
+        <v>66</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6">
+        <v>66</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="6">
+        <v>58</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="B16" s="6">
+        <v>55</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="6">
+        <v>47</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="10">
+        <v>45</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="6">
-        <v>66</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="D20" s="6"/>
     </row>
   </sheetData>
   <sheetProtection password="D880" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState ref="A2:C28">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:D20">
+    <sortCondition descending="1" ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection workbookPassword="D880" lockStructure="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\FromGIT\acme_class\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="uxJJS4HdazGTc+1vURbZ8oBaKzi7Gqg+QTbyan9lYsdsdMgexf2ECzvY5PBi8Y+uvk+YOVHW+7NxTb/17bqIww==" workbookSaltValue="QUiLzOs0oc0Hp8L6tfYcTQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Martes" sheetId="1" r:id="rId1"/>
     <sheet name="Lunes" sheetId="2" r:id="rId2"/>
+    <sheet name="graphs" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
   <si>
     <t>Adriana Mora</t>
   </si>
@@ -213,13 +219,43 @@
   </si>
   <si>
     <t>Sin Opcional</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>0-19</t>
+  </si>
+  <si>
+    <t>20-39</t>
+  </si>
+  <si>
+    <t>40-59</t>
+  </si>
+  <si>
+    <t>60-79</t>
+  </si>
+  <si>
+    <t>80-100</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Tarea1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +277,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aharoni"/>
+      <charset val="177"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,8 +311,59 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="lightDown"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor theme="1" tint="0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.44999542222357858"/>
+        <bgColor theme="1" tint="0.44999542222357858"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -278,12 +386,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -303,12 +503,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aharoni"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -319,6 +667,2660 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>CHART</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t> #1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graphs!$O$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quantity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>graphs!$N$11:$N$15</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40-59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60-79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80-100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>graphs!$O$11:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="367751864"/>
+        <c:axId val="417940208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="367751864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Grades</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417940208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="417940208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Employees</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367751864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>CHART</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t> #2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:latin typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="SimHei" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graphs!$O$23:$O$24</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>  </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0-19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>graphs!$N$25:$N$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>QA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scrum Master</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Senior Dev</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>UX Dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>graphs!$O$25:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graphs!$P$23:$P$24</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>  </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20-39</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>graphs!$N$25:$N$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>QA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scrum Master</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Senior Dev</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>UX Dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>graphs!$P$25:$P$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graphs!$Q$23:$Q$24</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>  </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40-59</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>graphs!$N$25:$N$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>QA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scrum Master</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Senior Dev</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>UX Dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>graphs!$Q$25:$Q$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graphs!$R$23:$R$24</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>  </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60-79</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>graphs!$N$25:$N$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>QA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scrum Master</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Senior Dev</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>UX Dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>graphs!$R$25:$R$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graphs!$S$23:$S$24</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>  </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80-100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>graphs!$N$25:$N$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Dev</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>QA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scrum Master</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Senior Dev</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVP</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>UX Dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>graphs!$S$25:$S$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="267244656"/>
+        <c:axId val="267245440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="267244656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Grades</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267245440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="267245440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Employees</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267244656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="N10:O15" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1" headerRowCellStyle="Accent1">
+  <autoFilter ref="N10:O15"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Range" dataDxfId="5"/>
+    <tableColumn id="2" name="Quantity" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -576,7 +3578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -586,11 +3588,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" hidden="1" customWidth="1"/>
@@ -609,27 +3611,36 @@
       <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="D1" s="29" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6">
         <v>68</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>70</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
@@ -641,203 +3652,257 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B6" s="6">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B7" s="6">
-        <v>63</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B8" s="6">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B9" s="6">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10" s="6">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="D10">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B11" s="6">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" s="6">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B13" s="6">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B15" s="6">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" s="6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B17" s="6">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="6">
+        <v>53</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
         <v>0</v>
       </c>
-      <c r="B18" s="6">
-        <v>47</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B19" s="6">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B20" s="6">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -847,8 +3912,11 @@
       <c r="C22" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>2</v>
       </c>
@@ -858,8 +3926,11 @@
       <c r="C23" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>5</v>
       </c>
@@ -869,8 +3940,11 @@
       <c r="C24" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
@@ -880,8 +3954,11 @@
       <c r="C25" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -891,19 +3968,22 @@
       <c r="C26" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection password="D880" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6QCj0MmR4/9zmU383JPs2qpo4qBN1b6fqS6wl0FWxQDZEHfyHZjxPVF26faTGNviMLsiOoN1A4uU1pvCbQGbXA==" saltValue="dKw0Ven+nvOTsx8wCnzAzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <sortState ref="A2:D28">
-    <sortCondition descending="1" ref="B1"/>
+    <sortCondition descending="1" ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -915,14 +3995,14 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -983,7 +4063,7 @@
       </c>
       <c r="G4">
         <f>SUM(B2:B20)/19</f>
-        <v>63.05263157894737</v>
+        <v>65.526315789473685</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1150,48 +4230,244 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="10">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="B18" s="6">
+        <v>47</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="10">
-        <v>39</v>
-      </c>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B19" s="10">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>61</v>
+        <v>36</v>
+      </c>
+      <c r="D19" s="10">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
       <c r="C20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection password="D880" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="23uQ0VFBDhd7xgIM5WSbG72EII1ibv/kHx0IDzsImi2N1NMTQoAZvbVDv0kmwmNudCtb0kfE4HKfJrxSRFTWMw==" saltValue="Py1cUl3RA9SlBROLpj7QuA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <sortState ref="A2:D20">
     <sortCondition descending="1" ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="N10:S30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="14:15" x14ac:dyDescent="0.25">
+      <c r="N15" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N23" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="23"/>
+    </row>
+    <row r="24" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N24" s="11"/>
+      <c r="O24" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q24" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="R24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="S24" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N25" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="18">
+        <v>1</v>
+      </c>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18">
+        <v>2</v>
+      </c>
+      <c r="R25" s="18">
+        <v>6</v>
+      </c>
+      <c r="S25" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N26" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" s="19">
+        <v>1</v>
+      </c>
+      <c r="P26" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>7</v>
+      </c>
+      <c r="R26" s="19">
+        <v>5</v>
+      </c>
+      <c r="S26" s="19"/>
+    </row>
+    <row r="27" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N27" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18">
+        <v>3</v>
+      </c>
+      <c r="R27" s="18">
+        <v>1</v>
+      </c>
+      <c r="S27" s="18"/>
+    </row>
+    <row r="28" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N28" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19">
+        <v>3</v>
+      </c>
+      <c r="R28" s="19">
+        <v>1</v>
+      </c>
+      <c r="S28" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18">
+        <v>1</v>
+      </c>
+      <c r="S29" s="18"/>
+    </row>
+    <row r="30" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N30" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O23:S23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/students.xlsx
+++ b/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\FromGIT\acme_class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="uxJJS4HdazGTc+1vURbZ8oBaKzi7Gqg+QTbyan9lYsdsdMgexf2ECzvY5PBi8Y+uvk+YOVHW+7NxTb/17bqIww==" workbookSaltValue="QUiLzOs0oc0Hp8L6tfYcTQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Y6kSD2eMOcc1VbNauDvqFX+jJIHT/kqgFGeowQcXOcN3Q0dhY4sHqTLDIiZif1ctPEexkQKmrCxos0YB2Hs3WQ==" workbookSaltValue="6A1r7/RXZt8SPyEegjLq2w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="9045"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>Adriana Mora</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Jason Alfaro</t>
   </si>
   <si>
-    <t>Jimmy Garcia</t>
-  </si>
-  <si>
     <t>Juan Carlos Arias</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>Sergio Vargas</t>
   </si>
   <si>
-    <t>Sharel Quesada</t>
-  </si>
-  <si>
     <t>William Ruiz</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>QA</t>
   </si>
   <si>
-    <t>DBA</t>
-  </si>
-  <si>
     <t>UX Dev</t>
   </si>
   <si>
@@ -249,6 +240,9 @@
   </si>
   <si>
     <t>Tarea1</t>
+  </si>
+  <si>
+    <t>Tarea 1</t>
   </si>
 </sst>
 </file>
@@ -363,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -467,23 +461,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -531,15 +514,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -555,73 +529,21 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aharoni"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -654,6 +576,66 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aharoni"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -974,7 +956,6 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -984,11 +965,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="367751864"/>
-        <c:axId val="417940208"/>
+        <c:axId val="359249888"/>
+        <c:axId val="357267256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="367751864"/>
+        <c:axId val="359249888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417940208"/>
+        <c:crossAx val="357267256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1119,7 +1100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="417940208"/>
+        <c:axId val="357267256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,7 +1217,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367751864"/>
+        <c:crossAx val="359249888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1830,11 +1811,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="267244656"/>
-        <c:axId val="267245440"/>
+        <c:axId val="357268040"/>
+        <c:axId val="357266080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="267244656"/>
+        <c:axId val="357268040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +1938,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267245440"/>
+        <c:crossAx val="357266080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1965,7 +1946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="267245440"/>
+        <c:axId val="357266080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2082,7 +2063,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267244656"/>
+        <c:crossAx val="357268040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3313,11 +3294,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="N10:O15" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1" headerRowCellStyle="Accent1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="N10:O15" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2" headerRowCellStyle="Accent1">
   <autoFilter ref="N10:O15"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Range" dataDxfId="5"/>
-    <tableColumn id="2" name="Quantity" dataDxfId="4"/>
+    <tableColumn id="1" name="Range" dataDxfId="1"/>
+    <tableColumn id="2" name="Quantity" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3586,10 +3567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3601,282 +3582,275 @@
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6">
         <v>68</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6">
-        <v>68</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3">
-        <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3">
-        <f>SUM(B2:B26)/21</f>
-        <v>53.904761904761905</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
         <v>63</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6">
         <v>61</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6">
-        <v>50</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6">
         <v>47</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D7">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6">
+        <v>37</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>50</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6">
+        <v>68</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="6">
         <v>47</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6">
-        <v>37</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="6">
-        <v>37</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="C11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="6">
         <v>71</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11">
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="B12" s="6">
-        <v>66</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="B13" s="6">
         <v>66</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14" s="6">
+        <v>66</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6">
         <v>60</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14">
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6">
         <v>58</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="6">
-        <v>55</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16">
+        <v>34</v>
+      </c>
+      <c r="D16" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B17" s="6">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17">
+        <v>34</v>
+      </c>
+      <c r="D17" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" s="6">
         <v>53</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18">
+        <v>31</v>
+      </c>
+      <c r="D18" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B19" s="6">
         <v>53</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19">
+        <v>32</v>
+      </c>
+      <c r="D19" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B20" s="6">
         <v>53</v>
@@ -3884,7 +3858,7 @@
       <c r="C20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3893,40 +3867,40 @@
         <v>16</v>
       </c>
       <c r="B21" s="6">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21">
+        <v>32</v>
+      </c>
+      <c r="D21" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" s="6">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22">
+        <v>29</v>
+      </c>
+      <c r="D22" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B23" s="6">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23">
+        <v>34</v>
+      </c>
+      <c r="D23" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3938,50 +3912,31 @@
         <v>0</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24">
+        <v>33</v>
+      </c>
+      <c r="D24" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="6">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="6">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="C27">
+        <f>SUM(B2:B24)/21</f>
+        <v>53.904761904761905</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6QCj0MmR4/9zmU383JPs2qpo4qBN1b6fqS6wl0FWxQDZEHfyHZjxPVF26faTGNviMLsiOoN1A4uU1pvCbQGbXA==" saltValue="dKw0Ven+nvOTsx8wCnzAzw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OlZ5/o6MR7jMidLD+YOSbZnGeryyGDd583naU9rGCWTa061SgIkdmjyA+WY3fg8gMWBdGpjONWuICOJD/oTEiA==" saltValue="YBLC9YTpr3ln+xRqbmXyow==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <sortState ref="A2:D28">
     <sortCondition descending="1" ref="D1"/>
   </sortState>
@@ -3992,10 +3947,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4003,275 +3958,340 @@
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6">
         <v>84</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="10">
+        <v>82</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="10">
+        <v>76</v>
+      </c>
+      <c r="E3" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="6">
+        <v>58</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="10">
+        <v>82</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="10">
+        <v>78</v>
+      </c>
+      <c r="E5" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="10">
+        <v>71</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="10">
+        <v>66</v>
+      </c>
+      <c r="E6" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B7" s="6">
+        <v>55</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="6">
         <v>84</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="6">
+        <v>47</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="10">
+        <v>45</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="10">
+        <v>39</v>
+      </c>
+      <c r="E10" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="6">
+        <v>47</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="10">
+        <v>84</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="10">
+        <v>82</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="10">
+        <v>76</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="6">
+        <v>76</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="6">
+        <v>74</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="6">
+        <v>71</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="6">
+        <v>71</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="6">
+        <v>66</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="10">
-        <v>84</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4">
+      <c r="B19" s="6">
+        <v>66</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25">
         <f>SUM(B2:B20)/19</f>
         <v>65.526315789473685</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="10">
-        <v>82</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="10">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="10">
-        <v>82</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="10">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="10">
-        <v>82</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="10">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="6">
-        <v>76</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="6">
-        <v>74</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="6">
-        <v>71</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="6">
-        <v>71</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="10">
-        <v>71</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="10">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="6">
-        <v>66</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="6">
-        <v>66</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="6">
-        <v>58</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="6">
-        <v>55</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="6">
-        <v>47</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="6">
-        <v>47</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="10">
-        <v>45</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="10">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="10">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="23uQ0VFBDhd7xgIM5WSbG72EII1ibv/kHx0IDzsImi2N1NMTQoAZvbVDv0kmwmNudCtb0kfE4HKfJrxSRFTWMw==" saltValue="Py1cUl3RA9SlBROLpj7QuA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState ref="A2:D20">
-    <sortCondition descending="1" ref="B1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AXSMfiEXW1Hnm03znCjhNLwkTeVgHAohkXbEobG9MC3Sy8W1pu3orizcJ5YnHpgiQMYRM+9WgMh6ydYzGrISgw==" saltValue="Uno2FeFQw3YrDyMFjCDrKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sortState ref="A2:E25">
+    <sortCondition descending="1" ref="E1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -4293,15 +4313,15 @@
   <sheetData>
     <row r="10" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N10" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N11" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O11" s="13">
         <v>2</v>
@@ -4309,7 +4329,7 @@
     </row>
     <row r="12" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N12" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O12" s="13">
         <v>2</v>
@@ -4317,7 +4337,7 @@
     </row>
     <row r="13" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N13" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O13" s="13">
         <v>15</v>
@@ -4325,7 +4345,7 @@
     </row>
     <row r="14" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N14" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O14" s="13">
         <v>14</v>
@@ -4333,7 +4353,7 @@
     </row>
     <row r="15" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N15" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O15" s="15">
         <v>6</v>
@@ -4341,37 +4361,37 @@
     </row>
     <row r="23" spans="14:19" x14ac:dyDescent="0.25">
       <c r="N23" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="O23" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="23"/>
+        <v>68</v>
+      </c>
+      <c r="O23" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="28"/>
     </row>
     <row r="24" spans="14:19" x14ac:dyDescent="0.25">
       <c r="N24" s="11"/>
-      <c r="O24" s="27" t="s">
+      <c r="O24" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q24" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="R24" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="P24" s="26" t="s">
+      <c r="S24" s="21" t="s">
         <v>67</v>
-      </c>
-      <c r="Q24" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="R24" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="S24" s="24" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="14:19" x14ac:dyDescent="0.25">
       <c r="N25" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O25" s="18">
         <v>1</v>
@@ -4389,7 +4409,7 @@
     </row>
     <row r="26" spans="14:19" x14ac:dyDescent="0.25">
       <c r="N26" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O26" s="19">
         <v>1</v>
@@ -4407,7 +4427,7 @@
     </row>
     <row r="27" spans="14:19" x14ac:dyDescent="0.25">
       <c r="N27" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
@@ -4421,7 +4441,7 @@
     </row>
     <row r="28" spans="14:19" x14ac:dyDescent="0.25">
       <c r="N28" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
@@ -4437,7 +4457,7 @@
     </row>
     <row r="29" spans="14:19" x14ac:dyDescent="0.25">
       <c r="N29" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
@@ -4449,7 +4469,7 @@
     </row>
     <row r="30" spans="14:19" x14ac:dyDescent="0.25">
       <c r="N30" s="19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Y6kSD2eMOcc1VbNauDvqFX+jJIHT/kqgFGeowQcXOcN3Q0dhY4sHqTLDIiZif1ctPEexkQKmrCxos0YB2Hs3WQ==" workbookSaltValue="6A1r7/RXZt8SPyEegjLq2w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="9045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Martes" sheetId="1" r:id="rId1"/>
@@ -711,7 +711,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -965,11 +964,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="359249888"/>
-        <c:axId val="357267256"/>
+        <c:axId val="330928824"/>
+        <c:axId val="330927256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="359249888"/>
+        <c:axId val="330928824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1027,7 +1026,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1092,7 +1090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357267256"/>
+        <c:crossAx val="330927256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1100,7 +1098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357267256"/>
+        <c:axId val="330927256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1158,7 +1156,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1217,7 +1214,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359249888"/>
+        <c:crossAx val="330928824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1231,7 +1228,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1368,7 +1364,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1811,11 +1806,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="357268040"/>
-        <c:axId val="357266080"/>
+        <c:axId val="330920984"/>
+        <c:axId val="330921768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="357268040"/>
+        <c:axId val="330920984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,7 +1868,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1938,7 +1932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357266080"/>
+        <c:crossAx val="330921768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1946,7 +1940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="357266080"/>
+        <c:axId val="330921768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2004,7 +1998,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2063,7 +2056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357268040"/>
+        <c:crossAx val="330920984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2077,7 +2070,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3569,7 +3561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3949,8 +3941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3996,30 +3988,28 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="10">
-        <v>82</v>
+        <v>51</v>
+      </c>
+      <c r="B3" s="6">
+        <v>58</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="10">
-        <v>76</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="6">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B4" s="6">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6">
@@ -4028,64 +4018,66 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B5" s="10">
         <v>82</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" s="10">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" s="6">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="10">
-        <v>71</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="10">
-        <v>66</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B6" s="6">
+        <v>55</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6"/>
       <c r="E6" s="6">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="6">
-        <v>55</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="B7" s="10">
+        <v>71</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="10">
+        <v>66</v>
+      </c>
       <c r="E7" s="6">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="6">
-        <v>84</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="10">
+        <v>82</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="D8" s="10">
+        <v>78</v>
+      </c>
       <c r="E8" s="6">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4105,65 +4097,63 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="10">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="B10" s="6">
+        <v>84</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="10">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="6">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="6">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="B11" s="10">
+        <v>45</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="10">
+        <v>39</v>
+      </c>
       <c r="E11" s="6">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="10">
-        <v>84</v>
+        <v>48</v>
+      </c>
+      <c r="B12" s="6">
+        <v>47</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>57</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D12" s="6"/>
       <c r="E12" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B13" s="10">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="10">
-        <v>76</v>
+        <v>36</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -4171,28 +4161,30 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="6">
+        <v>44</v>
+      </c>
+      <c r="B14" s="10">
+        <v>82</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="10">
         <v>76</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6"/>
       <c r="E14" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B15" s="6">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6">
@@ -4289,7 +4281,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AXSMfiEXW1Hnm03znCjhNLwkTeVgHAohkXbEobG9MC3Sy8W1pu3orizcJ5YnHpgiQMYRM+9WgMh6ydYzGrISgw==" saltValue="Uno2FeFQw3YrDyMFjCDrKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9KMcbArrsyKYLBAcJAIiliV06btmy1qU44lxFS7W8s34TjqJ7ZUSfqBXBZ36OOlEYhVQi8nr7OycQA80gO861Q==" saltValue="eH1xcdcONVOgYLW377NPyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <sortState ref="A2:E25">
     <sortCondition descending="1" ref="E1"/>
   </sortState>

--- a/students.xlsx
+++ b/students.xlsx
@@ -8,7 +8,6 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\FromGIT\acme_class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Y6kSD2eMOcc1VbNauDvqFX+jJIHT/kqgFGeowQcXOcN3Q0dhY4sHqTLDIiZif1ctPEexkQKmrCxos0YB2Hs3WQ==" workbookSaltValue="6A1r7/RXZt8SPyEegjLq2w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="9045" activeTab="1"/>
   </bookViews>
@@ -16,6 +15,7 @@
     <sheet name="Martes" sheetId="1" r:id="rId1"/>
     <sheet name="Lunes" sheetId="2" r:id="rId2"/>
     <sheet name="graphs" sheetId="6" r:id="rId3"/>
+    <sheet name="graphs finals" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
   <si>
     <t>Adriana Mora</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Pavel Sanchez</t>
   </si>
   <si>
-    <t>Roy Morales</t>
-  </si>
-  <si>
     <t>Sergio Vargas</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Grade</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>Lead</t>
   </si>
   <si>
-    <t>Director</t>
-  </si>
-  <si>
     <t>Dev</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
     <t>Techical Dev</t>
   </si>
   <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>Adrian Ortiz</t>
   </si>
   <si>
@@ -239,17 +227,53 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>Tarea1</t>
-  </si>
-  <si>
     <t>Tarea 1</t>
+  </si>
+  <si>
+    <t>Tarea 2</t>
+  </si>
+  <si>
+    <t>Tarea 3</t>
+  </si>
+  <si>
+    <t>Tarea 4</t>
+  </si>
+  <si>
+    <t>Resultado Final</t>
+  </si>
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>Reprobado</t>
+  </si>
+  <si>
+    <t>Average Tareas</t>
+  </si>
+  <si>
+    <t>Roy Saborio</t>
+  </si>
+  <si>
+    <t>Tarea Final</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Average Test:</t>
+  </si>
+  <si>
+    <t>Average Test</t>
+  </si>
+  <si>
+    <t>Manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,8 +316,22 @@
       <name val="Aharoni"/>
       <charset val="177"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +392,16 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -462,11 +510,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -529,6 +579,20 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -539,8 +603,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -964,11 +1030,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="330928824"/>
-        <c:axId val="330927256"/>
+        <c:axId val="305772688"/>
+        <c:axId val="305774256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="330928824"/>
+        <c:axId val="305772688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,7 +1156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330927256"/>
+        <c:crossAx val="305774256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1098,7 +1164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330927256"/>
+        <c:axId val="305774256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,7 +1280,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330928824"/>
+        <c:crossAx val="305772688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1806,11 +1872,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="330920984"/>
-        <c:axId val="330921768"/>
+        <c:axId val="307167904"/>
+        <c:axId val="307162808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="330920984"/>
+        <c:axId val="307167904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1932,7 +1998,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330921768"/>
+        <c:crossAx val="307162808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1940,7 +2006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330921768"/>
+        <c:axId val="307162808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2056,7 +2122,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330920984"/>
+        <c:crossAx val="307167904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3559,378 +3625,756 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26">
+        <v>47</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="28">
+        <v>70</v>
+      </c>
+      <c r="E2" s="28">
+        <v>100</v>
+      </c>
+      <c r="F2" s="28">
+        <v>100</v>
+      </c>
+      <c r="G2" s="26">
+        <v>0</v>
+      </c>
+      <c r="H2" s="26">
+        <f t="shared" ref="H2:H24" si="0">(D2+E2+F2+G2)/4</f>
+        <v>67.5</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="26">
+        <v>37</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="28">
+        <v>100</v>
+      </c>
+      <c r="E3" s="28">
+        <v>100</v>
+      </c>
+      <c r="F3" s="28">
+        <v>100</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0</v>
+      </c>
+      <c r="H3" s="28">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="26">
+        <v>50</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="28">
+        <v>85</v>
+      </c>
+      <c r="E4" s="28">
+        <v>100</v>
+      </c>
+      <c r="F4" s="28">
+        <v>100</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0</v>
+      </c>
+      <c r="H4" s="28">
+        <f t="shared" si="0"/>
+        <v>71.25</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B5" s="26">
         <v>68</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="28">
+        <v>110</v>
+      </c>
+      <c r="E5" s="28">
+        <v>100</v>
+      </c>
+      <c r="F5" s="28">
+        <v>100</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="28">
+        <f t="shared" si="0"/>
+        <v>77.5</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="26">
+        <v>61</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="28">
+        <v>90</v>
+      </c>
+      <c r="E6" s="28">
+        <v>100</v>
+      </c>
+      <c r="F6" s="28">
+        <v>100</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0</v>
+      </c>
+      <c r="H6" s="28">
+        <f t="shared" si="0"/>
+        <v>72.5</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="26">
+        <v>37</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="28">
+        <v>90</v>
+      </c>
+      <c r="E7" s="28">
+        <v>100</v>
+      </c>
+      <c r="F7" s="28">
+        <v>100</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0</v>
+      </c>
+      <c r="H7" s="28">
+        <f t="shared" si="0"/>
+        <v>72.5</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="26">
+        <v>68</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="28">
+        <v>80</v>
+      </c>
+      <c r="E8" s="28">
+        <v>100</v>
+      </c>
+      <c r="F8" s="28">
+        <v>100</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0</v>
+      </c>
+      <c r="H8" s="28">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="26">
+        <v>63</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="28">
+        <v>90</v>
+      </c>
+      <c r="E9" s="28">
+        <v>100</v>
+      </c>
+      <c r="F9" s="28">
+        <v>100</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0</v>
+      </c>
+      <c r="H9" s="28">
+        <f t="shared" si="0"/>
+        <v>72.5</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="26">
+        <v>50</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0</v>
+      </c>
+      <c r="E10" s="28">
+        <v>100</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
+      <c r="H10" s="26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="26">
+        <v>66</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="28">
+        <v>75</v>
+      </c>
+      <c r="E11" s="28">
+        <v>100</v>
+      </c>
+      <c r="F11" s="28">
+        <v>100</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0</v>
+      </c>
+      <c r="H11" s="26">
+        <f t="shared" si="0"/>
+        <v>68.75</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="26">
+        <v>60</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0</v>
+      </c>
+      <c r="E12" s="28">
+        <v>100</v>
+      </c>
+      <c r="F12" s="28">
+        <v>100</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0</v>
+      </c>
+      <c r="H12" s="26">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="6">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6">
-        <v>37</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B13" s="28">
+        <v>71</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0</v>
+      </c>
+      <c r="F13" s="26">
+        <v>0</v>
+      </c>
+      <c r="G13" s="26">
+        <v>0</v>
+      </c>
+      <c r="H13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="26">
+        <v>53</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="26">
+        <v>0</v>
+      </c>
+      <c r="E14" s="26">
+        <v>0</v>
+      </c>
+      <c r="F14" s="26">
+        <v>0</v>
+      </c>
+      <c r="G14" s="26">
+        <v>0</v>
+      </c>
+      <c r="H14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="26">
+        <v>53</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="26">
+        <v>0</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0</v>
+      </c>
+      <c r="H15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="26">
+        <v>0</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="26">
+        <v>0</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0</v>
+      </c>
+      <c r="H16" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="26">
+        <v>16</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0</v>
+      </c>
+      <c r="H17" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="26">
+        <v>53</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0</v>
+      </c>
+      <c r="E18" s="26">
+        <v>0</v>
+      </c>
+      <c r="F18" s="26">
+        <v>0</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0</v>
+      </c>
+      <c r="H18" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="26">
+        <v>55</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="26">
+        <v>0</v>
+      </c>
+      <c r="E19" s="26">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26">
+        <v>0</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0</v>
+      </c>
+      <c r="H19" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="26">
+        <v>58</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="26">
+        <v>0</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0</v>
+      </c>
+      <c r="G20" s="26">
+        <v>0</v>
+      </c>
+      <c r="H20" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B21" s="26">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="28">
+        <v>100</v>
+      </c>
+      <c r="E21" s="26">
+        <v>0</v>
+      </c>
+      <c r="F21" s="26">
+        <v>0</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0</v>
+      </c>
+      <c r="H21" s="26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="26">
+        <v>66</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0</v>
+      </c>
+      <c r="E22" s="26">
+        <v>0</v>
+      </c>
+      <c r="F22" s="26">
+        <v>0</v>
+      </c>
+      <c r="G22" s="26">
+        <v>0</v>
+      </c>
+      <c r="H22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="26">
+        <v>53</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="26">
+        <v>0</v>
+      </c>
+      <c r="E23" s="26">
+        <v>0</v>
+      </c>
+      <c r="F23" s="26">
+        <v>0</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0</v>
+      </c>
+      <c r="H23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6">
-        <v>63</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B24" s="26">
+        <v>47</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="28">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6">
-        <v>61</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="6">
-        <v>47</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6">
-        <v>37</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <v>50</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="6">
-        <v>68</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="6">
-        <v>47</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="6">
-        <v>71</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="6">
-        <v>66</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="6">
-        <v>66</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="6">
-        <v>60</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="6">
-        <v>58</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6">
-        <v>55</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="6">
-        <v>53</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="6">
-        <v>53</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="6">
-        <v>53</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="6">
-        <v>53</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="6">
-        <v>50</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="6">
-        <v>16</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="6">
-        <v>0</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="26">
+        <v>0</v>
+      </c>
+      <c r="F24" s="26">
+        <v>0</v>
+      </c>
+      <c r="G24" s="26">
+        <v>0</v>
+      </c>
+      <c r="H24" s="26">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27">
-        <f>SUM(B2:B24)/21</f>
-        <v>53.904761904761905</v>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6">
+        <f>SUM(B2:B24)/22</f>
+        <v>51.454545454545453</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OlZ5/o6MR7jMidLD+YOSbZnGeryyGDd583naU9rGCWTa061SgIkdmjyA+WY3fg8gMWBdGpjONWuICOJD/oTEiA==" saltValue="YBLC9YTpr3ln+xRqbmXyow==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState ref="A2:D28">
-    <sortCondition descending="1" ref="D1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sortState ref="A2:I28">
+    <sortCondition ref="I1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -3939,341 +4383,710 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="12" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="28">
+        <v>84</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28">
+        <v>95</v>
+      </c>
+      <c r="F2" s="28">
+        <v>100</v>
+      </c>
+      <c r="G2" s="26">
+        <v>0</v>
+      </c>
+      <c r="H2" s="26">
+        <v>0</v>
+      </c>
+      <c r="I2" s="26">
+        <v>0</v>
+      </c>
+      <c r="J2" s="26">
+        <f t="shared" ref="J2:J20" si="0">(E2+F2+G2+H2+I2)/5</f>
+        <v>39</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="26">
+        <v>58</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28">
+        <v>95</v>
+      </c>
+      <c r="F3" s="28">
+        <v>100</v>
+      </c>
+      <c r="G3" s="28">
+        <v>100</v>
+      </c>
+      <c r="H3" s="28">
+        <v>100</v>
+      </c>
+      <c r="I3" s="28">
+        <v>100</v>
+      </c>
+      <c r="J3" s="28">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="28">
+        <v>74</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28">
+        <v>95</v>
+      </c>
+      <c r="F4" s="28">
+        <v>100</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0</v>
+      </c>
+      <c r="H4" s="28">
+        <v>100</v>
+      </c>
+      <c r="I4" s="26">
+        <v>0</v>
+      </c>
+      <c r="J4" s="26">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="29">
+        <v>82</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="29">
+        <v>76</v>
+      </c>
+      <c r="E5" s="28">
+        <v>90</v>
+      </c>
+      <c r="F5" s="28">
+        <v>100</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="28">
+        <v>100</v>
+      </c>
+      <c r="I5" s="26">
+        <v>0</v>
+      </c>
+      <c r="J5" s="26">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="26">
+        <v>55</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28">
+        <v>90</v>
+      </c>
+      <c r="F6" s="28">
+        <v>100</v>
+      </c>
+      <c r="G6" s="28">
+        <v>100</v>
+      </c>
+      <c r="H6" s="28">
+        <v>100</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0</v>
+      </c>
+      <c r="J6" s="28">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B7" s="29">
+        <v>84</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="28">
+        <v>90</v>
+      </c>
+      <c r="F7" s="28">
+        <v>100</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0</v>
+      </c>
+      <c r="J7" s="26">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="29">
+        <v>71</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="29">
+        <v>66</v>
+      </c>
+      <c r="E8" s="28">
+        <v>85</v>
+      </c>
+      <c r="F8" s="28">
+        <v>100</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0</v>
+      </c>
+      <c r="H8" s="28">
+        <v>100</v>
+      </c>
+      <c r="I8" s="26">
+        <v>0</v>
+      </c>
+      <c r="J8" s="26">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="27">
+        <v>45</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="29">
+        <v>39</v>
+      </c>
+      <c r="E9" s="28">
+        <v>70</v>
+      </c>
+      <c r="F9" s="28">
+        <v>100</v>
+      </c>
+      <c r="G9" s="28">
+        <v>100</v>
+      </c>
+      <c r="H9" s="28">
+        <v>100</v>
+      </c>
+      <c r="I9" s="26">
+        <v>0</v>
+      </c>
+      <c r="J9" s="28">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="28">
+        <v>71</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="26">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28">
+        <v>100</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0</v>
+      </c>
+      <c r="J10" s="26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="26">
+        <v>66</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="26">
+        <v>0</v>
+      </c>
+      <c r="F11" s="28">
+        <v>100</v>
+      </c>
+      <c r="G11" s="28">
+        <v>100</v>
+      </c>
+      <c r="H11" s="26">
+        <v>0</v>
+      </c>
+      <c r="I11" s="28">
+        <v>90</v>
+      </c>
+      <c r="J11" s="26">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="28">
+        <v>76</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="26">
+        <v>0</v>
+      </c>
+      <c r="F12" s="28">
+        <v>100</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0</v>
+      </c>
+      <c r="H12" s="26">
+        <v>0</v>
+      </c>
+      <c r="I12" s="26">
+        <v>0</v>
+      </c>
+      <c r="J12" s="26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="B13" s="29">
+        <v>82</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="27">
+        <v>78</v>
+      </c>
+      <c r="E13" s="28">
+        <v>80</v>
+      </c>
+      <c r="F13" s="28">
+        <v>100</v>
+      </c>
+      <c r="G13" s="26">
+        <v>0</v>
+      </c>
+      <c r="H13" s="26">
+        <v>0</v>
+      </c>
+      <c r="I13" s="26">
+        <v>0</v>
+      </c>
+      <c r="J13" s="26">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="26">
+        <v>47</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="28">
+        <v>75</v>
+      </c>
+      <c r="F14" s="28">
+        <v>100</v>
+      </c>
+      <c r="G14" s="28">
+        <v>100</v>
+      </c>
+      <c r="H14" s="26">
+        <v>0</v>
+      </c>
+      <c r="I14" s="26">
+        <v>0</v>
+      </c>
+      <c r="J14" s="26">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="28">
         <v>84</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="6">
-        <v>58</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="28">
+        <v>70</v>
+      </c>
+      <c r="F15" s="28">
+        <v>100</v>
+      </c>
+      <c r="G15" s="28">
+        <v>100</v>
+      </c>
+      <c r="H15" s="26">
+        <v>0</v>
+      </c>
+      <c r="I15" s="26">
+        <v>0</v>
+      </c>
+      <c r="J15" s="26">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B4" s="6">
-        <v>74</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="10">
-        <v>82</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="10">
-        <v>76</v>
-      </c>
-      <c r="E5" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="6">
-        <v>55</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="10">
-        <v>71</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="10">
-        <v>66</v>
-      </c>
-      <c r="E7" s="6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="10">
-        <v>82</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="10">
-        <v>78</v>
-      </c>
-      <c r="E8" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="26">
         <v>47</v>
-      </c>
-      <c r="B9" s="6">
-        <v>47</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="6">
-        <v>84</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="10">
-        <v>45</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="10">
-        <v>39</v>
-      </c>
-      <c r="E11" s="6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="6">
-        <v>47</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="10">
-        <v>84</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="10">
-        <v>82</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="10">
-        <v>76</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="6">
-        <v>76</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="6">
-        <v>71</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="26">
+        <v>60</v>
+      </c>
+      <c r="F16" s="28">
+        <v>100</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0</v>
+      </c>
+      <c r="I16" s="26">
+        <v>0</v>
+      </c>
+      <c r="J16" s="26">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="6">
+        <v>40</v>
+      </c>
+      <c r="B17" s="29">
+        <v>82</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="10">
+        <v>76</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0</v>
+      </c>
+      <c r="F17" s="28">
+        <v>100</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0</v>
+      </c>
+      <c r="H17" s="26">
+        <v>0</v>
+      </c>
+      <c r="I17" s="26">
+        <v>0</v>
+      </c>
+      <c r="J17" s="26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="28">
         <v>71</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="26">
+        <v>0</v>
+      </c>
+      <c r="F18" s="28">
+        <v>100</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0</v>
+      </c>
+      <c r="H18" s="26">
+        <v>0</v>
+      </c>
+      <c r="I18" s="26">
+        <v>0</v>
+      </c>
+      <c r="J18" s="26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="27">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="26">
+        <v>0</v>
+      </c>
+      <c r="F19" s="28">
+        <v>100</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0</v>
+      </c>
+      <c r="H19" s="26">
+        <v>0</v>
+      </c>
+      <c r="I19" s="26">
+        <v>0</v>
+      </c>
+      <c r="J19" s="26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="26">
+        <v>66</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="26">
+        <v>0</v>
+      </c>
+      <c r="F20" s="28">
+        <v>100</v>
+      </c>
+      <c r="G20" s="26">
+        <v>0</v>
+      </c>
+      <c r="H20" s="26">
+        <v>0</v>
+      </c>
+      <c r="I20" s="26">
+        <v>0</v>
+      </c>
+      <c r="J20" s="26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
         <v>55</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="6">
-        <v>66</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="6">
-        <v>66</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="10">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>59</v>
       </c>
       <c r="C25">
         <f>SUM(B2:B20)/19</f>
@@ -4281,10 +5094,11 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9KMcbArrsyKYLBAcJAIiliV06btmy1qU44lxFS7W8s34TjqJ7ZUSfqBXBZ36OOlEYhVQi8nr7OycQA80gO861Q==" saltValue="eH1xcdcONVOgYLW377NPyA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState ref="A2:E25">
-    <sortCondition descending="1" ref="E1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sortState ref="A2:K25">
+    <sortCondition ref="K1"/>
   </sortState>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -4294,7 +5108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="N10:S30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="D1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="B7" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -4305,15 +5119,15 @@
   <sheetData>
     <row r="10" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N10" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N11" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O11" s="13">
         <v>2</v>
@@ -4321,7 +5135,7 @@
     </row>
     <row r="12" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N12" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O12" s="13">
         <v>2</v>
@@ -4329,7 +5143,7 @@
     </row>
     <row r="13" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N13" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="O13" s="13">
         <v>15</v>
@@ -4337,7 +5151,7 @@
     </row>
     <row r="14" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N14" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O14" s="13">
         <v>14</v>
@@ -4345,7 +5159,7 @@
     </row>
     <row r="15" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N15" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O15" s="15">
         <v>6</v>
@@ -4353,37 +5167,37 @@
     </row>
     <row r="23" spans="14:19" x14ac:dyDescent="0.25">
       <c r="N23" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="O23" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="28"/>
+        <v>64</v>
+      </c>
+      <c r="O23" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="34"/>
     </row>
     <row r="24" spans="14:19" x14ac:dyDescent="0.25">
       <c r="N24" s="11"/>
       <c r="O24" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="R24" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="S24" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="P24" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q24" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="R24" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="S24" s="21" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="25" spans="14:19" x14ac:dyDescent="0.25">
       <c r="N25" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O25" s="18">
         <v>1</v>
@@ -4401,7 +5215,7 @@
     </row>
     <row r="26" spans="14:19" x14ac:dyDescent="0.25">
       <c r="N26" s="19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O26" s="19">
         <v>1</v>
@@ -4419,7 +5233,7 @@
     </row>
     <row r="27" spans="14:19" x14ac:dyDescent="0.25">
       <c r="N27" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
@@ -4433,7 +5247,7 @@
     </row>
     <row r="28" spans="14:19" x14ac:dyDescent="0.25">
       <c r="N28" s="19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O28" s="19"/>
       <c r="P28" s="19"/>
@@ -4449,7 +5263,7 @@
     </row>
     <row r="29" spans="14:19" x14ac:dyDescent="0.25">
       <c r="N29" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
@@ -4461,7 +5275,7 @@
     </row>
     <row r="30" spans="14:19" x14ac:dyDescent="0.25">
       <c r="N30" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>
@@ -4482,4 +5296,16 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/students.xlsx
+++ b/students.xlsx
@@ -4387,7 +4387,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="26">
-        <f t="shared" ref="J2:J20" si="0">(E2+F2+G2+H2+I2)/5</f>
+        <f>(E2+F2+G2+H2+I2)/5</f>
         <v>39</v>
       </c>
       <c r="K2" s="28" t="s">
@@ -4498,7 +4498,7 @@
         <v>100</v>
       </c>
       <c r="J3" s="28">
-        <f t="shared" si="0"/>
+        <f>(E3+F3+G3+H3+I3)/5</f>
         <v>99</v>
       </c>
       <c r="K3" s="28" t="s">
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="26">
-        <f t="shared" si="0"/>
+        <f>(E4+F4+G4+H4+I4)/5</f>
         <v>59</v>
       </c>
       <c r="K4" s="28" t="s">
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="26">
-        <f t="shared" si="0"/>
+        <f>(E5+F5+G5+H5+I5)/5</f>
         <v>58</v>
       </c>
       <c r="K5" s="28" t="s">
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="28">
-        <f t="shared" si="0"/>
+        <f>(E6+F6+G6+H6+I6)/5</f>
         <v>78</v>
       </c>
       <c r="K6" s="28" t="s">
@@ -4638,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="26">
-        <f t="shared" si="0"/>
+        <f>(E7+F7+G7+H7+I7)/5</f>
         <v>38</v>
       </c>
       <c r="K7" s="28" t="s">
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="26">
-        <f t="shared" si="0"/>
+        <f>(E8+F8+G8+H8+I8)/5</f>
         <v>57</v>
       </c>
       <c r="K8" s="28" t="s">
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="28">
-        <f t="shared" si="0"/>
+        <f>(E9+F9+G9+H9+I9)/5</f>
         <v>74</v>
       </c>
       <c r="K9" s="28" t="s">
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="26">
-        <f t="shared" si="0"/>
+        <f>(E10+F10+G10+H10+I10)/5</f>
         <v>20</v>
       </c>
       <c r="K10" s="28" t="s">
@@ -4778,7 +4778,7 @@
         <v>90</v>
       </c>
       <c r="J11" s="26">
-        <f t="shared" si="0"/>
+        <f>(E11+F11+G11+H11+I11)/5</f>
         <v>58</v>
       </c>
       <c r="K11" s="28" t="s">
@@ -4812,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="26">
-        <f t="shared" si="0"/>
+        <f>(E12+F12+G12+H12+I12)/5</f>
         <v>20</v>
       </c>
       <c r="K12" s="26" t="s">
@@ -4848,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="26">
-        <f t="shared" si="0"/>
+        <f>(E13+F13+G13+H13+I13)/5</f>
         <v>36</v>
       </c>
       <c r="K13" s="6"/>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="26">
-        <f t="shared" si="0"/>
+        <f>(E14+F14+G14+H14+I14)/5</f>
         <v>55</v>
       </c>
       <c r="K14" s="6"/>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="26">
-        <f t="shared" si="0"/>
+        <f>(E15+F15+G15+H15+I15)/5</f>
         <v>54</v>
       </c>
       <c r="K15" s="6"/>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="26">
-        <f t="shared" si="0"/>
+        <f>(E16+F16+G16+H16+I16)/5</f>
         <v>32</v>
       </c>
       <c r="K16" s="6"/>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="26">
-        <f t="shared" si="0"/>
+        <f>(E17+F17+G17+H17+I17)/5</f>
         <v>20</v>
       </c>
       <c r="K17" s="6"/>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="26">
-        <f t="shared" si="0"/>
+        <f>(E18+F18+G18+H18+I18)/5</f>
         <v>20</v>
       </c>
       <c r="K18" s="6"/>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="26">
-        <f t="shared" si="0"/>
+        <f>(E19+F19+G19+H19+I19)/5</f>
         <v>20</v>
       </c>
       <c r="K19" s="6"/>
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="26">
-        <f t="shared" si="0"/>
+        <f>(E20+F20+G20+H20+I20)/5</f>
         <v>20</v>
       </c>
       <c r="K20" s="6"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
   <si>
     <t>Adriana Mora</t>
   </si>
@@ -516,7 +516,7 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -528,7 +528,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1030,11 +1029,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="305772688"/>
-        <c:axId val="305774256"/>
+        <c:axId val="274028376"/>
+        <c:axId val="274035040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="305772688"/>
+        <c:axId val="274028376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305774256"/>
+        <c:crossAx val="274035040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1164,7 +1163,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="305774256"/>
+        <c:axId val="274035040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,7 +1279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305772688"/>
+        <c:crossAx val="274028376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1872,11 +1871,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="307167904"/>
-        <c:axId val="307162808"/>
+        <c:axId val="274032688"/>
+        <c:axId val="274030728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="307167904"/>
+        <c:axId val="274032688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,7 +1997,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307162808"/>
+        <c:crossAx val="274030728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2006,7 +2005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307162808"/>
+        <c:axId val="274030728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2122,7 +2121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307167904"/>
+        <c:crossAx val="274032688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3672,572 +3671,572 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26">
+      <c r="A2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25">
         <v>47</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="27">
         <v>70</v>
       </c>
-      <c r="E2" s="28">
-        <v>100</v>
-      </c>
-      <c r="F2" s="28">
-        <v>100</v>
-      </c>
-      <c r="G2" s="26">
-        <v>0</v>
-      </c>
-      <c r="H2" s="26">
+      <c r="E2" s="27">
+        <v>100</v>
+      </c>
+      <c r="F2" s="27">
+        <v>100</v>
+      </c>
+      <c r="G2" s="25">
+        <v>0</v>
+      </c>
+      <c r="H2" s="25">
         <f t="shared" ref="H2:H24" si="0">(D2+E2+F2+G2)/4</f>
         <v>67.5</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>37</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="28">
-        <v>100</v>
-      </c>
-      <c r="E3" s="28">
-        <v>100</v>
-      </c>
-      <c r="F3" s="28">
-        <v>100</v>
-      </c>
-      <c r="G3" s="26">
-        <v>0</v>
-      </c>
-      <c r="H3" s="28">
+      <c r="D3" s="27">
+        <v>100</v>
+      </c>
+      <c r="E3" s="27">
+        <v>100</v>
+      </c>
+      <c r="F3" s="27">
+        <v>100</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>50</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <v>85</v>
       </c>
-      <c r="E4" s="28">
-        <v>100</v>
-      </c>
-      <c r="F4" s="28">
-        <v>100</v>
-      </c>
-      <c r="G4" s="26">
-        <v>0</v>
-      </c>
-      <c r="H4" s="28">
+      <c r="E4" s="27">
+        <v>100</v>
+      </c>
+      <c r="F4" s="27">
+        <v>100</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="27">
         <f t="shared" si="0"/>
         <v>71.25</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>68</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>110</v>
       </c>
-      <c r="E5" s="28">
-        <v>100</v>
-      </c>
-      <c r="F5" s="28">
-        <v>100</v>
-      </c>
-      <c r="G5" s="26">
-        <v>0</v>
-      </c>
-      <c r="H5" s="28">
+      <c r="E5" s="27">
+        <v>100</v>
+      </c>
+      <c r="F5" s="27">
+        <v>100</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="27">
         <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>61</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="27">
         <v>90</v>
       </c>
-      <c r="E6" s="28">
-        <v>100</v>
-      </c>
-      <c r="F6" s="28">
-        <v>100</v>
-      </c>
-      <c r="G6" s="26">
-        <v>0</v>
-      </c>
-      <c r="H6" s="28">
+      <c r="E6" s="27">
+        <v>100</v>
+      </c>
+      <c r="F6" s="27">
+        <v>100</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="27">
         <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>37</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="27">
         <v>90</v>
       </c>
-      <c r="E7" s="28">
-        <v>100</v>
-      </c>
-      <c r="F7" s="28">
-        <v>100</v>
-      </c>
-      <c r="G7" s="26">
-        <v>0</v>
-      </c>
-      <c r="H7" s="28">
+      <c r="E7" s="27">
+        <v>100</v>
+      </c>
+      <c r="F7" s="27">
+        <v>100</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="27">
         <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>68</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>80</v>
       </c>
-      <c r="E8" s="28">
-        <v>100</v>
-      </c>
-      <c r="F8" s="28">
-        <v>100</v>
-      </c>
-      <c r="G8" s="26">
-        <v>0</v>
-      </c>
-      <c r="H8" s="28">
+      <c r="E8" s="27">
+        <v>100</v>
+      </c>
+      <c r="F8" s="27">
+        <v>100</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="27">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>63</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <v>90</v>
       </c>
-      <c r="E9" s="28">
-        <v>100</v>
-      </c>
-      <c r="F9" s="28">
-        <v>100</v>
-      </c>
-      <c r="G9" s="26">
-        <v>0</v>
-      </c>
-      <c r="H9" s="28">
+      <c r="E9" s="27">
+        <v>100</v>
+      </c>
+      <c r="F9" s="27">
+        <v>100</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0</v>
+      </c>
+      <c r="H9" s="27">
         <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>50</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="26">
-        <v>0</v>
-      </c>
-      <c r="E10" s="28">
-        <v>100</v>
-      </c>
-      <c r="F10" s="26">
-        <v>0</v>
-      </c>
-      <c r="G10" s="26">
-        <v>0</v>
-      </c>
-      <c r="H10" s="26">
+      <c r="D10" s="25">
+        <v>0</v>
+      </c>
+      <c r="E10" s="27">
+        <v>100</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <v>66</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <v>75</v>
       </c>
-      <c r="E11" s="28">
-        <v>100</v>
-      </c>
-      <c r="F11" s="28">
-        <v>100</v>
-      </c>
-      <c r="G11" s="26">
-        <v>0</v>
-      </c>
-      <c r="H11" s="26">
+      <c r="E11" s="27">
+        <v>100</v>
+      </c>
+      <c r="F11" s="27">
+        <v>100</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
         <f t="shared" si="0"/>
         <v>68.75</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>60</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="26">
-        <v>0</v>
-      </c>
-      <c r="E12" s="28">
-        <v>100</v>
-      </c>
-      <c r="F12" s="28">
-        <v>100</v>
-      </c>
-      <c r="G12" s="26">
-        <v>0</v>
-      </c>
-      <c r="H12" s="26">
+      <c r="D12" s="25">
+        <v>0</v>
+      </c>
+      <c r="E12" s="27">
+        <v>100</v>
+      </c>
+      <c r="F12" s="27">
+        <v>100</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="27">
         <v>71</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="26">
-        <v>0</v>
-      </c>
-      <c r="E13" s="26">
-        <v>0</v>
-      </c>
-      <c r="F13" s="26">
-        <v>0</v>
-      </c>
-      <c r="G13" s="26">
-        <v>0</v>
-      </c>
-      <c r="H13" s="26">
+      <c r="D13" s="25">
+        <v>0</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>53</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="26">
-        <v>0</v>
-      </c>
-      <c r="E14" s="26">
-        <v>0</v>
-      </c>
-      <c r="F14" s="26">
-        <v>0</v>
-      </c>
-      <c r="G14" s="26">
-        <v>0</v>
-      </c>
-      <c r="H14" s="26">
+      <c r="D14" s="25">
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>53</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="26">
-        <v>0</v>
-      </c>
-      <c r="E15" s="26">
-        <v>0</v>
-      </c>
-      <c r="F15" s="26">
-        <v>0</v>
-      </c>
-      <c r="G15" s="26">
-        <v>0</v>
-      </c>
-      <c r="H15" s="26">
+      <c r="D15" s="25">
+        <v>0</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
+      <c r="G15" s="25">
+        <v>0</v>
+      </c>
+      <c r="H15" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="26">
-        <v>0</v>
-      </c>
-      <c r="C16" s="26" t="s">
+      <c r="B16" s="25">
+        <v>0</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="26">
-        <v>0</v>
-      </c>
-      <c r="E16" s="26">
-        <v>0</v>
-      </c>
-      <c r="F16" s="26">
-        <v>0</v>
-      </c>
-      <c r="G16" s="26">
-        <v>0</v>
-      </c>
-      <c r="H16" s="26">
+      <c r="D16" s="25">
+        <v>0</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>16</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="26">
-        <v>0</v>
-      </c>
-      <c r="E17" s="26">
-        <v>0</v>
-      </c>
-      <c r="F17" s="26">
-        <v>0</v>
-      </c>
-      <c r="G17" s="26">
-        <v>0</v>
-      </c>
-      <c r="H17" s="26">
+      <c r="D17" s="25">
+        <v>0</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>53</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="26">
-        <v>0</v>
-      </c>
-      <c r="E18" s="26">
-        <v>0</v>
-      </c>
-      <c r="F18" s="26">
-        <v>0</v>
-      </c>
-      <c r="G18" s="26">
-        <v>0</v>
-      </c>
-      <c r="H18" s="26">
+      <c r="D18" s="25">
+        <v>0</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>55</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="26">
-        <v>0</v>
-      </c>
-      <c r="E19" s="26">
-        <v>0</v>
-      </c>
-      <c r="F19" s="26">
-        <v>0</v>
-      </c>
-      <c r="G19" s="26">
-        <v>0</v>
-      </c>
-      <c r="H19" s="26">
+      <c r="D19" s="25">
+        <v>0</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0</v>
+      </c>
+      <c r="H19" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>58</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="26">
-        <v>0</v>
-      </c>
-      <c r="E20" s="26">
-        <v>0</v>
-      </c>
-      <c r="F20" s="26">
-        <v>0</v>
-      </c>
-      <c r="G20" s="26">
-        <v>0</v>
-      </c>
-      <c r="H20" s="26">
+      <c r="D20" s="25">
+        <v>0</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
+      <c r="H20" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="25" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4245,25 +4244,25 @@
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <v>0</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="28">
-        <v>100</v>
-      </c>
-      <c r="E21" s="26">
-        <v>0</v>
-      </c>
-      <c r="F21" s="26">
-        <v>0</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0</v>
-      </c>
-      <c r="H21" s="26">
+      <c r="D21" s="27">
+        <v>100</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0</v>
+      </c>
+      <c r="G21" s="25">
+        <v>0</v>
+      </c>
+      <c r="H21" s="25">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -4273,25 +4272,25 @@
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <v>66</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="26">
-        <v>0</v>
-      </c>
-      <c r="E22" s="26">
-        <v>0</v>
-      </c>
-      <c r="F22" s="26">
-        <v>0</v>
-      </c>
-      <c r="G22" s="26">
-        <v>0</v>
-      </c>
-      <c r="H22" s="26">
+      <c r="D22" s="25">
+        <v>0</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0</v>
+      </c>
+      <c r="H22" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4301,25 +4300,25 @@
       <c r="A23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="25">
         <v>53</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="26">
-        <v>0</v>
-      </c>
-      <c r="E23" s="26">
-        <v>0</v>
-      </c>
-      <c r="F23" s="26">
-        <v>0</v>
-      </c>
-      <c r="G23" s="26">
-        <v>0</v>
-      </c>
-      <c r="H23" s="26">
+      <c r="D23" s="25">
+        <v>0</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0</v>
+      </c>
+      <c r="F23" s="25">
+        <v>0</v>
+      </c>
+      <c r="G23" s="25">
+        <v>0</v>
+      </c>
+      <c r="H23" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4329,34 +4328,34 @@
       <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>47</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="27">
         <v>90</v>
       </c>
-      <c r="E24" s="26">
-        <v>0</v>
-      </c>
-      <c r="F24" s="26">
-        <v>0</v>
-      </c>
-      <c r="G24" s="26">
-        <v>0</v>
-      </c>
-      <c r="H24" s="26">
+      <c r="E24" s="25">
+        <v>0</v>
+      </c>
+      <c r="F24" s="25">
+        <v>0</v>
+      </c>
+      <c r="G24" s="25">
+        <v>0</v>
+      </c>
+      <c r="H24" s="25">
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
@@ -4387,7 +4386,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4438,645 +4437,659 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="25">
+        <v>58</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27">
+        <v>95</v>
+      </c>
+      <c r="F2" s="27">
+        <v>100</v>
+      </c>
+      <c r="G2" s="27">
+        <v>100</v>
+      </c>
+      <c r="H2" s="27">
+        <v>100</v>
+      </c>
+      <c r="I2" s="27">
+        <v>100</v>
+      </c>
+      <c r="J2" s="27">
+        <f t="shared" ref="J2:J20" si="0">(E2+F2+G2+H2+I2)/5</f>
+        <v>99</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="25">
+        <v>55</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27">
+        <v>90</v>
+      </c>
+      <c r="F3" s="27">
+        <v>100</v>
+      </c>
+      <c r="G3" s="27">
+        <v>100</v>
+      </c>
+      <c r="H3" s="27">
+        <v>100</v>
+      </c>
+      <c r="I3" s="27">
+        <v>85</v>
+      </c>
+      <c r="J3" s="27">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="27">
+        <v>74</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27">
+        <v>95</v>
+      </c>
+      <c r="F4" s="27">
+        <v>100</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="27">
+        <v>100</v>
+      </c>
+      <c r="I4" s="27">
+        <v>100</v>
+      </c>
+      <c r="J4" s="27">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="26">
+        <v>45</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="28">
+        <v>39</v>
+      </c>
+      <c r="E5" s="27">
+        <v>70</v>
+      </c>
+      <c r="F5" s="27">
+        <v>100</v>
+      </c>
+      <c r="G5" s="27">
+        <v>100</v>
+      </c>
+      <c r="H5" s="27">
+        <v>100</v>
+      </c>
+      <c r="I5" s="25">
+        <v>0</v>
+      </c>
+      <c r="J5" s="27">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="25">
+        <v>66</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="25">
+        <v>0</v>
+      </c>
+      <c r="F6" s="27">
+        <v>100</v>
+      </c>
+      <c r="G6" s="27">
+        <v>100</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="27">
+        <v>90</v>
+      </c>
+      <c r="J6" s="25">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="28">
+        <v>82</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="28">
+        <v>76</v>
+      </c>
+      <c r="E7" s="27">
+        <v>90</v>
+      </c>
+      <c r="F7" s="27">
+        <v>100</v>
+      </c>
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="27">
+        <v>100</v>
+      </c>
+      <c r="I7" s="25">
+        <v>0</v>
+      </c>
+      <c r="J7" s="25">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="28">
+        <v>84</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="27">
+        <v>90</v>
+      </c>
+      <c r="F8" s="27">
+        <v>100</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0</v>
+      </c>
+      <c r="I8" s="27">
+        <v>85</v>
+      </c>
+      <c r="J8" s="25">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B9" s="27">
         <v>84</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27">
         <v>95</v>
       </c>
-      <c r="F2" s="28">
-        <v>100</v>
-      </c>
-      <c r="G2" s="26">
-        <v>0</v>
-      </c>
-      <c r="H2" s="26">
-        <v>0</v>
-      </c>
-      <c r="I2" s="26">
-        <v>0</v>
-      </c>
-      <c r="J2" s="26">
-        <f>(E2+F2+G2+H2+I2)/5</f>
+      <c r="F9" s="27">
+        <v>100</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0</v>
+      </c>
+      <c r="J9" s="25">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K9" s="27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="26">
+        <v>68</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0</v>
+      </c>
+      <c r="F10" s="27">
+        <v>100</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0</v>
+      </c>
+      <c r="I10" s="27">
+        <v>90</v>
+      </c>
+      <c r="J10" s="25">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="27">
+        <v>71</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="25">
+        <v>0</v>
+      </c>
+      <c r="F11" s="27">
+        <v>100</v>
+      </c>
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="28">
+        <v>82</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="9">
+        <v>76</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0</v>
+      </c>
+      <c r="F12" s="27">
+        <v>100</v>
+      </c>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25">
+        <v>0</v>
+      </c>
+      <c r="J12" s="25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="28">
+        <v>71</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="28">
+        <v>66</v>
+      </c>
+      <c r="E13" s="27">
+        <v>85</v>
+      </c>
+      <c r="F13" s="27">
+        <v>100</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="27">
+        <v>100</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0</v>
+      </c>
+      <c r="J13" s="25">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="25">
         <v>47</v>
       </c>
-      <c r="B3" s="26">
-        <v>58</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28">
-        <v>95</v>
-      </c>
-      <c r="F3" s="28">
-        <v>100</v>
-      </c>
-      <c r="G3" s="28">
-        <v>100</v>
-      </c>
-      <c r="H3" s="28">
-        <v>100</v>
-      </c>
-      <c r="I3" s="28">
-        <v>100</v>
-      </c>
-      <c r="J3" s="28">
-        <f>(E3+F3+G3+H3+I3)/5</f>
-        <v>99</v>
-      </c>
-      <c r="K3" s="28" t="s">
+      <c r="C14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="27">
+        <v>75</v>
+      </c>
+      <c r="F14" s="27">
+        <v>100</v>
+      </c>
+      <c r="G14" s="27">
+        <v>100</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0</v>
+      </c>
+      <c r="J14" s="25">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="27">
+        <v>84</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="27">
+        <v>70</v>
+      </c>
+      <c r="F15" s="27">
+        <v>100</v>
+      </c>
+      <c r="G15" s="27">
+        <v>100</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0</v>
+      </c>
+      <c r="J15" s="25">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="28">
+        <v>82</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="26">
+        <v>78</v>
+      </c>
+      <c r="E16" s="27">
+        <v>80</v>
+      </c>
+      <c r="F16" s="27">
+        <v>100</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0</v>
+      </c>
+      <c r="J16" s="25">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="25">
+        <v>47</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="25">
+        <v>60</v>
+      </c>
+      <c r="F17" s="27">
+        <v>100</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25">
+        <v>0</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0</v>
+      </c>
+      <c r="J17" s="25">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="27">
+        <v>76</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="25">
+        <v>0</v>
+      </c>
+      <c r="F18" s="27">
+        <v>100</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
+        <v>0</v>
+      </c>
+      <c r="I18" s="25">
+        <v>0</v>
+      </c>
+      <c r="J18" s="25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="27">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="28">
-        <v>74</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28">
-        <v>95</v>
-      </c>
-      <c r="F4" s="28">
-        <v>100</v>
-      </c>
-      <c r="G4" s="26">
-        <v>0</v>
-      </c>
-      <c r="H4" s="28">
-        <v>100</v>
-      </c>
-      <c r="I4" s="26">
-        <v>0</v>
-      </c>
-      <c r="J4" s="26">
-        <f>(E4+F4+G4+H4+I4)/5</f>
-        <v>59</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="29">
-        <v>82</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="C19" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="29">
-        <v>76</v>
-      </c>
-      <c r="E5" s="28">
-        <v>90</v>
-      </c>
-      <c r="F5" s="28">
-        <v>100</v>
-      </c>
-      <c r="G5" s="26">
-        <v>0</v>
-      </c>
-      <c r="H5" s="28">
-        <v>100</v>
-      </c>
-      <c r="I5" s="26">
-        <v>0</v>
-      </c>
-      <c r="J5" s="26">
-        <f>(E5+F5+G5+H5+I5)/5</f>
-        <v>58</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="26">
-        <v>55</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28">
-        <v>90</v>
-      </c>
-      <c r="F6" s="28">
-        <v>100</v>
-      </c>
-      <c r="G6" s="28">
-        <v>100</v>
-      </c>
-      <c r="H6" s="28">
-        <v>100</v>
-      </c>
-      <c r="I6" s="26">
-        <v>0</v>
-      </c>
-      <c r="J6" s="28">
-        <f>(E6+F6+G6+H6+I6)/5</f>
-        <v>78</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="29">
-        <v>84</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="28">
-        <v>90</v>
-      </c>
-      <c r="F7" s="28">
-        <v>100</v>
-      </c>
-      <c r="G7" s="26">
-        <v>0</v>
-      </c>
-      <c r="H7" s="26">
-        <v>0</v>
-      </c>
-      <c r="I7" s="26">
-        <v>0</v>
-      </c>
-      <c r="J7" s="26">
-        <f>(E7+F7+G7+H7+I7)/5</f>
-        <v>38</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="29">
-        <v>71</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="29">
-        <v>66</v>
-      </c>
-      <c r="E8" s="28">
-        <v>85</v>
-      </c>
-      <c r="F8" s="28">
-        <v>100</v>
-      </c>
-      <c r="G8" s="26">
-        <v>0</v>
-      </c>
-      <c r="H8" s="28">
-        <v>100</v>
-      </c>
-      <c r="I8" s="26">
-        <v>0</v>
-      </c>
-      <c r="J8" s="26">
-        <f>(E8+F8+G8+H8+I8)/5</f>
-        <v>57</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="27">
-        <v>45</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="29">
-        <v>39</v>
-      </c>
-      <c r="E9" s="28">
-        <v>70</v>
-      </c>
-      <c r="F9" s="28">
-        <v>100</v>
-      </c>
-      <c r="G9" s="28">
-        <v>100</v>
-      </c>
-      <c r="H9" s="28">
-        <v>100</v>
-      </c>
-      <c r="I9" s="26">
-        <v>0</v>
-      </c>
-      <c r="J9" s="28">
-        <f>(E9+F9+G9+H9+I9)/5</f>
-        <v>74</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="28">
-        <v>71</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="26">
-        <v>0</v>
-      </c>
-      <c r="F10" s="28">
-        <v>100</v>
-      </c>
-      <c r="G10" s="26">
-        <v>0</v>
-      </c>
-      <c r="H10" s="26">
-        <v>0</v>
-      </c>
-      <c r="I10" s="26">
-        <v>0</v>
-      </c>
-      <c r="J10" s="26">
-        <f>(E10+F10+G10+H10+I10)/5</f>
+      <c r="D19" s="6"/>
+      <c r="E19" s="25">
+        <v>0</v>
+      </c>
+      <c r="F19" s="27">
+        <v>100</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0</v>
+      </c>
+      <c r="H19" s="25">
+        <v>0</v>
+      </c>
+      <c r="I19" s="25">
+        <v>0</v>
+      </c>
+      <c r="J19" s="25">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="K10" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="26">
-        <v>66</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="26">
-        <v>0</v>
-      </c>
-      <c r="F11" s="28">
-        <v>100</v>
-      </c>
-      <c r="G11" s="28">
-        <v>100</v>
-      </c>
-      <c r="H11" s="26">
-        <v>0</v>
-      </c>
-      <c r="I11" s="28">
-        <v>90</v>
-      </c>
-      <c r="J11" s="26">
-        <f>(E11+F11+G11+H11+I11)/5</f>
-        <v>58</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="28">
-        <v>76</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="26">
-        <v>0</v>
-      </c>
-      <c r="F12" s="28">
-        <v>100</v>
-      </c>
-      <c r="G12" s="26">
-        <v>0</v>
-      </c>
-      <c r="H12" s="26">
-        <v>0</v>
-      </c>
-      <c r="I12" s="26">
-        <v>0</v>
-      </c>
-      <c r="J12" s="26">
-        <f>(E12+F12+G12+H12+I12)/5</f>
-        <v>20</v>
-      </c>
-      <c r="K12" s="26" t="s">
+      <c r="K19" s="25" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="29">
-        <v>82</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="27">
-        <v>78</v>
-      </c>
-      <c r="E13" s="28">
-        <v>80</v>
-      </c>
-      <c r="F13" s="28">
-        <v>100</v>
-      </c>
-      <c r="G13" s="26">
-        <v>0</v>
-      </c>
-      <c r="H13" s="26">
-        <v>0</v>
-      </c>
-      <c r="I13" s="26">
-        <v>0</v>
-      </c>
-      <c r="J13" s="26">
-        <f>(E13+F13+G13+H13+I13)/5</f>
-        <v>36</v>
-      </c>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="26">
-        <v>47</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="28">
-        <v>75</v>
-      </c>
-      <c r="F14" s="28">
-        <v>100</v>
-      </c>
-      <c r="G14" s="28">
-        <v>100</v>
-      </c>
-      <c r="H14" s="26">
-        <v>0</v>
-      </c>
-      <c r="I14" s="26">
-        <v>0</v>
-      </c>
-      <c r="J14" s="26">
-        <f>(E14+F14+G14+H14+I14)/5</f>
-        <v>55</v>
-      </c>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="28">
-        <v>84</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="28">
-        <v>70</v>
-      </c>
-      <c r="F15" s="28">
-        <v>100</v>
-      </c>
-      <c r="G15" s="28">
-        <v>100</v>
-      </c>
-      <c r="H15" s="26">
-        <v>0</v>
-      </c>
-      <c r="I15" s="26">
-        <v>0</v>
-      </c>
-      <c r="J15" s="26">
-        <f>(E15+F15+G15+H15+I15)/5</f>
-        <v>54</v>
-      </c>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="26">
-        <v>47</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="26">
-        <v>60</v>
-      </c>
-      <c r="F16" s="28">
-        <v>100</v>
-      </c>
-      <c r="G16" s="26">
-        <v>0</v>
-      </c>
-      <c r="H16" s="26">
-        <v>0</v>
-      </c>
-      <c r="I16" s="26">
-        <v>0</v>
-      </c>
-      <c r="J16" s="26">
-        <f>(E16+F16+G16+H16+I16)/5</f>
-        <v>32</v>
-      </c>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="29">
-        <v>82</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="10">
-        <v>76</v>
-      </c>
-      <c r="E17" s="26">
-        <v>0</v>
-      </c>
-      <c r="F17" s="28">
-        <v>100</v>
-      </c>
-      <c r="G17" s="26">
-        <v>0</v>
-      </c>
-      <c r="H17" s="26">
-        <v>0</v>
-      </c>
-      <c r="I17" s="26">
-        <v>0</v>
-      </c>
-      <c r="J17" s="26">
-        <f>(E17+F17+G17+H17+I17)/5</f>
-        <v>20</v>
-      </c>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="28">
-        <v>71</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="26">
-        <v>0</v>
-      </c>
-      <c r="F18" s="28">
-        <v>100</v>
-      </c>
-      <c r="G18" s="26">
-        <v>0</v>
-      </c>
-      <c r="H18" s="26">
-        <v>0</v>
-      </c>
-      <c r="I18" s="26">
-        <v>0</v>
-      </c>
-      <c r="J18" s="26">
-        <f>(E18+F18+G18+H18+I18)/5</f>
-        <v>20</v>
-      </c>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="27">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="26">
-        <v>0</v>
-      </c>
-      <c r="F19" s="28">
-        <v>100</v>
-      </c>
-      <c r="G19" s="26">
-        <v>0</v>
-      </c>
-      <c r="H19" s="26">
-        <v>0</v>
-      </c>
-      <c r="I19" s="26">
-        <v>0</v>
-      </c>
-      <c r="J19" s="26">
-        <f>(E19+F19+G19+H19+I19)/5</f>
-        <v>20</v>
-      </c>
-      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="6">
         <v>66</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="26">
-        <v>0</v>
-      </c>
-      <c r="F20" s="28">
-        <v>100</v>
-      </c>
-      <c r="G20" s="26">
-        <v>0</v>
-      </c>
-      <c r="H20" s="26">
-        <v>0</v>
-      </c>
-      <c r="I20" s="26">
-        <v>0</v>
-      </c>
-      <c r="J20" s="26">
-        <f>(E20+F20+G20+H20+I20)/5</f>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>100</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K20" s="6"/>
@@ -5090,7 +5103,7 @@
       </c>
       <c r="C25">
         <f>SUM(B2:B20)/19</f>
-        <v>65.526315789473685</v>
+        <v>69.10526315789474</v>
       </c>
     </row>
   </sheetData>
@@ -5118,170 +5131,170 @@
   </cols>
   <sheetData>
     <row r="10" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="12">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N14" s="12" t="s">
+      <c r="N14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N15" s="14" t="s">
+      <c r="N15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N23" s="20" t="s">
+      <c r="N23" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="O23" s="32" t="s">
+      <c r="O23" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="34"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="33"/>
     </row>
     <row r="24" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N24" s="11"/>
-      <c r="O24" s="24" t="s">
+      <c r="N24" s="10"/>
+      <c r="O24" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="P24" s="23" t="s">
+      <c r="P24" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="Q24" s="25" t="s">
+      <c r="Q24" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="R24" s="22" t="s">
+      <c r="R24" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="S24" s="21" t="s">
+      <c r="S24" s="20" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N25" s="18" t="s">
+      <c r="N25" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O25" s="17">
         <v>1</v>
       </c>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18">
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17">
         <v>2</v>
       </c>
-      <c r="R25" s="18">
+      <c r="R25" s="17">
         <v>6</v>
       </c>
-      <c r="S25" s="18">
+      <c r="S25" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N26" s="19" t="s">
+      <c r="N26" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O26" s="18">
         <v>1</v>
       </c>
-      <c r="P26" s="19">
+      <c r="P26" s="18">
         <v>2</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="Q26" s="18">
         <v>7</v>
       </c>
-      <c r="R26" s="19">
+      <c r="R26" s="18">
         <v>5</v>
       </c>
-      <c r="S26" s="19"/>
+      <c r="S26" s="18"/>
     </row>
     <row r="27" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N27" s="18" t="s">
+      <c r="N27" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18">
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17">
         <v>3</v>
       </c>
-      <c r="R27" s="18">
+      <c r="R27" s="17">
         <v>1</v>
       </c>
-      <c r="S27" s="18"/>
+      <c r="S27" s="17"/>
     </row>
     <row r="28" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N28" s="19" t="s">
+      <c r="N28" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19">
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18">
         <v>3</v>
       </c>
-      <c r="R28" s="19">
+      <c r="R28" s="18">
         <v>1</v>
       </c>
-      <c r="S28" s="19">
+      <c r="S28" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N29" s="18" t="s">
+      <c r="N29" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18">
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17">
         <v>1</v>
       </c>
-      <c r="S29" s="18"/>
+      <c r="S29" s="17"/>
     </row>
     <row r="30" spans="14:19" x14ac:dyDescent="0.25">
-      <c r="N30" s="19" t="s">
+      <c r="N30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19">
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18">
         <v>1</v>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="9045" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Martes" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
   <si>
     <t>Adriana Mora</t>
   </si>
@@ -1029,11 +1029,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="274028376"/>
-        <c:axId val="274035040"/>
+        <c:axId val="300107440"/>
+        <c:axId val="300107832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="274028376"/>
+        <c:axId val="300107440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274035040"/>
+        <c:crossAx val="300107832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1163,7 +1163,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="274035040"/>
+        <c:axId val="300107832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274028376"/>
+        <c:crossAx val="300107440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1871,11 +1871,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="274032688"/>
-        <c:axId val="274030728"/>
+        <c:axId val="300108224"/>
+        <c:axId val="300102344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="274032688"/>
+        <c:axId val="300108224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,7 +1997,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274030728"/>
+        <c:crossAx val="300102344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2005,7 +2005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="274030728"/>
+        <c:axId val="300102344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274032688"/>
+        <c:crossAx val="300108224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3626,8 +3626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,16 +3672,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" s="25">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" s="27">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="E2" s="27">
         <v>100</v>
@@ -3689,12 +3689,12 @@
       <c r="F2" s="27">
         <v>100</v>
       </c>
-      <c r="G2" s="25">
-        <v>0</v>
-      </c>
-      <c r="H2" s="25">
-        <f t="shared" ref="H2:H24" si="0">(D2+E2+F2+G2)/4</f>
-        <v>67.5</v>
+      <c r="G2" s="27">
+        <v>110</v>
+      </c>
+      <c r="H2" s="27">
+        <f>(D2+E2+F2+G2)/4</f>
+        <v>105</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>71</v>
@@ -3702,16 +3702,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B3" s="25">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="27">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E3" s="27">
         <v>100</v>
@@ -3719,12 +3719,12 @@
       <c r="F3" s="27">
         <v>100</v>
       </c>
-      <c r="G3" s="25">
-        <v>0</v>
+      <c r="G3" s="27">
+        <v>98</v>
       </c>
       <c r="H3" s="27">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f>(D3+E3+F3+G3)/4</f>
+        <v>92</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>71</v>
@@ -3732,16 +3732,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B4" s="25">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="27">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E4" s="27">
         <v>100</v>
@@ -3749,12 +3749,12 @@
       <c r="F4" s="27">
         <v>100</v>
       </c>
-      <c r="G4" s="25">
-        <v>0</v>
+      <c r="G4" s="27">
+        <v>93</v>
       </c>
       <c r="H4" s="27">
-        <f t="shared" si="0"/>
-        <v>71.25</v>
+        <f>(D4+E4+F4+G4)/4</f>
+        <v>92</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>71</v>
@@ -3762,16 +3762,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="25">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="27">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E5" s="27">
         <v>100</v>
@@ -3779,12 +3779,12 @@
       <c r="F5" s="27">
         <v>100</v>
       </c>
-      <c r="G5" s="25">
-        <v>0</v>
+      <c r="G5" s="27">
+        <v>90</v>
       </c>
       <c r="H5" s="27">
-        <f t="shared" si="0"/>
-        <v>77.5</v>
+        <f>(D5+E5+F5+G5)/4</f>
+        <v>95</v>
       </c>
       <c r="I5" s="27" t="s">
         <v>71</v>
@@ -3792,16 +3792,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" s="25">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="27">
-        <v>90</v>
+        <v>31</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0</v>
       </c>
       <c r="E6" s="27">
         <v>100</v>
@@ -3809,12 +3809,12 @@
       <c r="F6" s="27">
         <v>100</v>
       </c>
-      <c r="G6" s="25">
-        <v>0</v>
+      <c r="G6" s="27">
+        <v>80</v>
       </c>
       <c r="H6" s="27">
-        <f t="shared" si="0"/>
-        <v>72.5</v>
+        <f>(D6+E6+F6+G6)/4</f>
+        <v>70</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>71</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" s="25">
         <v>37</v>
@@ -3831,7 +3831,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="27">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E7" s="27">
         <v>100</v>
@@ -3843,8 +3843,8 @@
         <v>0</v>
       </c>
       <c r="H7" s="27">
-        <f t="shared" si="0"/>
-        <v>72.5</v>
+        <f>(D7+E7+F7+G7)/4</f>
+        <v>75</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>71</v>
@@ -3852,16 +3852,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B8" s="25">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="27">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E8" s="27">
         <v>100</v>
@@ -3873,8 +3873,8 @@
         <v>0</v>
       </c>
       <c r="H8" s="27">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <f>(D8+E8+F8+G8)/4</f>
+        <v>71.25</v>
       </c>
       <c r="I8" s="27" t="s">
         <v>71</v>
@@ -3882,10 +3882,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" s="25">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>31</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="27">
-        <f t="shared" si="0"/>
+        <f>(D9+E9+F9+G9)/4</f>
         <v>72.5</v>
       </c>
       <c r="I9" s="27" t="s">
@@ -3912,29 +3912,29 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="25">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="25">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="D10" s="27">
+        <v>80</v>
       </c>
       <c r="E10" s="27">
         <v>100</v>
       </c>
-      <c r="F10" s="25">
-        <v>0</v>
+      <c r="F10" s="27">
+        <v>100</v>
       </c>
       <c r="G10" s="25">
         <v>0</v>
       </c>
-      <c r="H10" s="25">
-        <f t="shared" si="0"/>
-        <v>25</v>
+      <c r="H10" s="27">
+        <f>(D10+E10+F10+G10)/4</f>
+        <v>70</v>
       </c>
       <c r="I10" s="27" t="s">
         <v>71</v>
@@ -3942,16 +3942,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="B11" s="25">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D11" s="27">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E11" s="27">
         <v>100</v>
@@ -3962,23 +3962,23 @@
       <c r="G11" s="25">
         <v>0</v>
       </c>
-      <c r="H11" s="25">
-        <f t="shared" si="0"/>
-        <v>68.75</v>
+      <c r="H11" s="27">
+        <f>(D11+E11+F11+G11)/4</f>
+        <v>72.5</v>
       </c>
       <c r="I11" s="27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>18</v>
+      <c r="A12" s="29" t="s">
+        <v>15</v>
       </c>
       <c r="B12" s="25">
-        <v>60</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="D12" s="25">
         <v>0</v>
@@ -3986,18 +3986,18 @@
       <c r="E12" s="27">
         <v>100</v>
       </c>
-      <c r="F12" s="27">
-        <v>100</v>
+      <c r="F12" s="25">
+        <v>0</v>
       </c>
       <c r="G12" s="25">
         <v>0</v>
       </c>
       <c r="H12" s="25">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>71</v>
+        <f>(D12+E12+F12+G12)/4</f>
+        <v>25</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="25">
-        <f t="shared" si="0"/>
+        <f>(D13+E13+F13+G13)/4</f>
         <v>0</v>
       </c>
       <c r="I13" s="25" t="s">
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="25">
-        <f t="shared" si="0"/>
+        <f>(D14+E14+F14+G14)/4</f>
         <v>0</v>
       </c>
       <c r="I14" s="25" t="s">
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="25">
-        <f t="shared" si="0"/>
+        <f>(D15+E15+F15+G15)/4</f>
         <v>0</v>
       </c>
       <c r="I15" s="25" t="s">
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="25">
-        <f t="shared" si="0"/>
+        <f>(D16+E16+F16+G16)/4</f>
         <v>0</v>
       </c>
       <c r="I16" s="25" t="s">
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="25">
-        <f t="shared" si="0"/>
+        <f>(D17+E17+F17+G17)/4</f>
         <v>0</v>
       </c>
       <c r="I17" s="25" t="s">
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="25">
-        <f t="shared" si="0"/>
+        <f>(D18+E18+F18+G18)/4</f>
         <v>0</v>
       </c>
       <c r="I18" s="25" t="s">
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="25">
-        <f t="shared" si="0"/>
+        <f>(D19+E19+F19+G19)/4</f>
         <v>0</v>
       </c>
       <c r="I19" s="25" t="s">
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="25">
-        <f t="shared" si="0"/>
+        <f>(D20+E20+F20+G20)/4</f>
         <v>0</v>
       </c>
       <c r="I20" s="25" t="s">
@@ -4241,17 +4241,17 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>2</v>
+      <c r="A21" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="B21" s="25">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>79</v>
+        <v>47</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="D21" s="27">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E21" s="25">
         <v>0</v>
@@ -4263,23 +4263,25 @@
         <v>0</v>
       </c>
       <c r="H21" s="25">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="I21" s="6"/>
+        <f>(D21+E21+F21+G21)/4</f>
+        <v>22.5</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="25">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="25">
-        <v>0</v>
+      <c r="D22" s="27">
+        <v>100</v>
       </c>
       <c r="E22" s="25">
         <v>0</v>
@@ -4291,20 +4293,20 @@
         <v>0</v>
       </c>
       <c r="H22" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(D22+E22+F22+G22)/4</f>
+        <v>25</v>
       </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B23" s="25">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="D23" s="25">
         <v>0</v>
@@ -4319,23 +4321,23 @@
         <v>0</v>
       </c>
       <c r="H23" s="25">
-        <f t="shared" si="0"/>
+        <f>(D23+E23+F23+G23)/4</f>
         <v>0</v>
       </c>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B24" s="25">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="27">
-        <v>90</v>
+        <v>29</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0</v>
       </c>
       <c r="E24" s="25">
         <v>0</v>
@@ -4347,8 +4349,8 @@
         <v>0</v>
       </c>
       <c r="H24" s="25">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
+        <f>(D24+E24+F24+G24)/4</f>
+        <v>0</v>
       </c>
       <c r="I24" s="6"/>
     </row>
@@ -4373,7 +4375,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <sortState ref="A2:I28">
-    <sortCondition ref="I1"/>
+    <sortCondition ref="I4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -4384,9 +4386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4634,11 +4636,11 @@
         <v>100</v>
       </c>
       <c r="I7" s="25">
-        <v>0</v>
-      </c>
-      <c r="J7" s="25">
+        <v>100</v>
+      </c>
+      <c r="J7" s="27">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="K7" s="27" t="s">
         <v>71</v>

--- a/students.xlsx
+++ b/students.xlsx
@@ -1029,11 +1029,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="300107440"/>
-        <c:axId val="300107832"/>
+        <c:axId val="305060032"/>
+        <c:axId val="305059248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="300107440"/>
+        <c:axId val="305060032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300107832"/>
+        <c:crossAx val="305059248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1163,7 +1163,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="300107832"/>
+        <c:axId val="305059248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300107440"/>
+        <c:crossAx val="305060032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1871,11 +1871,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="300108224"/>
-        <c:axId val="300102344"/>
+        <c:axId val="306694624"/>
+        <c:axId val="306696976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="300108224"/>
+        <c:axId val="306694624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,7 +1997,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300102344"/>
+        <c:crossAx val="306696976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2005,7 +2005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="300102344"/>
+        <c:axId val="306696976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300108224"/>
+        <c:crossAx val="306694624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3627,7 +3627,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:I24"/>
+      <selection activeCell="G8" sqref="G8:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" s="25">
         <v>37</v>
@@ -3831,7 +3831,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="27">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E7" s="27">
         <v>100</v>
@@ -3839,12 +3839,12 @@
       <c r="F7" s="27">
         <v>100</v>
       </c>
-      <c r="G7" s="25">
-        <v>0</v>
+      <c r="G7" s="27">
+        <v>65</v>
       </c>
       <c r="H7" s="27">
         <f>(D7+E7+F7+G7)/4</f>
-        <v>75</v>
+        <v>88.75</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>71</v>
@@ -3852,16 +3852,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="25">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="27">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E8" s="27">
         <v>100</v>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="H8" s="27">
         <f>(D8+E8+F8+G8)/4</f>
-        <v>71.25</v>
+        <v>75</v>
       </c>
       <c r="I8" s="27" t="s">
         <v>71</v>
@@ -3882,16 +3882,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" s="25">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="27">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E9" s="27">
         <v>100</v>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="H9" s="27">
         <f>(D9+E9+F9+G9)/4</f>
-        <v>72.5</v>
+        <v>71.25</v>
       </c>
       <c r="I9" s="27" t="s">
         <v>71</v>
@@ -4375,7 +4375,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <sortState ref="A2:I28">
-    <sortCondition ref="I4"/>
+    <sortCondition descending="1" ref="G1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -4388,7 +4388,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="A2:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4465,7 +4465,7 @@
         <v>100</v>
       </c>
       <c r="J2" s="27">
-        <f t="shared" ref="J2:J20" si="0">(E2+F2+G2+H2+I2)/5</f>
+        <f>(E2+F2+G2+H2+I2)/5</f>
         <v>99</v>
       </c>
       <c r="K2" s="27" t="s">
@@ -4499,7 +4499,7 @@
         <v>85</v>
       </c>
       <c r="J3" s="27">
-        <f t="shared" si="0"/>
+        <f>(E3+F3+G3+H3+I3)/5</f>
         <v>95</v>
       </c>
       <c r="K3" s="27" t="s">
@@ -4533,7 +4533,7 @@
         <v>100</v>
       </c>
       <c r="J4" s="27">
-        <f t="shared" si="0"/>
+        <f>(E4+F4+G4+H4+I4)/5</f>
         <v>79</v>
       </c>
       <c r="K4" s="27" t="s">
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="27">
-        <f t="shared" si="0"/>
+        <f>(E5+F5+G5+H5+I5)/5</f>
         <v>74</v>
       </c>
       <c r="K5" s="27" t="s">
@@ -4603,7 +4603,7 @@
         <v>90</v>
       </c>
       <c r="J6" s="25">
-        <f t="shared" si="0"/>
+        <f>(E6+F6+G6+H6+I6)/5</f>
         <v>58</v>
       </c>
       <c r="K6" s="27" t="s">
@@ -4639,7 +4639,7 @@
         <v>100</v>
       </c>
       <c r="J7" s="27">
-        <f t="shared" si="0"/>
+        <f>(E7+F7+G7+H7+I7)/5</f>
         <v>78</v>
       </c>
       <c r="K7" s="27" t="s">
@@ -4675,7 +4675,7 @@
         <v>85</v>
       </c>
       <c r="J8" s="25">
-        <f t="shared" si="0"/>
+        <f>(E8+F8+G8+H8+I8)/5</f>
         <v>55</v>
       </c>
       <c r="K8" s="27" t="s">
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="25">
-        <f t="shared" si="0"/>
+        <f>(E9+F9+G9+H9+I9)/5</f>
         <v>39</v>
       </c>
       <c r="K9" s="27" t="s">
@@ -4745,7 +4745,7 @@
         <v>90</v>
       </c>
       <c r="J10" s="25">
-        <f t="shared" si="0"/>
+        <f>(E10+F10+G10+H10+I10)/5</f>
         <v>38</v>
       </c>
       <c r="K10" s="27" t="s">
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="25">
-        <f t="shared" si="0"/>
+        <f>(E11+F11+G11+H11+I11)/5</f>
         <v>20</v>
       </c>
       <c r="K11" s="27" t="s">
@@ -4788,19 +4788,19 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="28">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="9">
-        <v>76</v>
-      </c>
-      <c r="E12" s="25">
-        <v>0</v>
+      <c r="D12" s="28">
+        <v>66</v>
+      </c>
+      <c r="E12" s="27">
+        <v>85</v>
       </c>
       <c r="F12" s="27">
         <v>100</v>
@@ -4808,35 +4808,35 @@
       <c r="G12" s="25">
         <v>0</v>
       </c>
-      <c r="H12" s="25">
-        <v>0</v>
+      <c r="H12" s="27">
+        <v>100</v>
       </c>
       <c r="I12" s="25">
         <v>0</v>
       </c>
       <c r="J12" s="25">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>(E12+F12+G12+H12+I12)/5</f>
+        <v>57</v>
       </c>
       <c r="K12" s="27" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>38</v>
+      <c r="A13" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="B13" s="28">
-        <v>71</v>
-      </c>
-      <c r="C13" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="28">
-        <v>66</v>
-      </c>
-      <c r="E13" s="27">
-        <v>85</v>
+      <c r="D13" s="9">
+        <v>76</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0</v>
       </c>
       <c r="F13" s="27">
         <v>100</v>
@@ -4844,18 +4844,18 @@
       <c r="G13" s="25">
         <v>0</v>
       </c>
-      <c r="H13" s="27">
-        <v>100</v>
+      <c r="H13" s="25">
+        <v>0</v>
       </c>
       <c r="I13" s="25">
         <v>0</v>
       </c>
       <c r="J13" s="25">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>71</v>
+        <f>(E13+F13+G13+H13+I13)/5</f>
+        <v>20</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="25">
-        <f t="shared" si="0"/>
+        <f>(E14+F14+G14+H14+I14)/5</f>
         <v>55</v>
       </c>
       <c r="K14" s="25" t="s">
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="25">
-        <f t="shared" si="0"/>
+        <f>(E15+F15+G15+H15+I15)/5</f>
         <v>54</v>
       </c>
       <c r="K15" s="25" t="s">
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="25">
-        <f t="shared" si="0"/>
+        <f>(E16+F16+G16+H16+I16)/5</f>
         <v>36</v>
       </c>
       <c r="K16" s="25" t="s">
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="25">
-        <f t="shared" si="0"/>
+        <f>(E17+F17+G17+H17+I17)/5</f>
         <v>32</v>
       </c>
       <c r="K17" s="25" t="s">
@@ -5023,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="25">
-        <f t="shared" si="0"/>
+        <f>(E18+F18+G18+H18+I18)/5</f>
         <v>20</v>
       </c>
       <c r="K18" s="25" t="s">
@@ -5057,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="25">
-        <f t="shared" si="0"/>
+        <f>(E19+F19+G19+H19+I19)/5</f>
         <v>20</v>
       </c>
       <c r="K19" s="25" t="s">
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="0"/>
+        <f>(E20+F20+G20+H20+I20)/5</f>
         <v>20</v>
       </c>
       <c r="K20" s="6"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="9045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Martes" sheetId="1" r:id="rId1"/>
@@ -1029,11 +1029,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="305060032"/>
-        <c:axId val="305059248"/>
+        <c:axId val="306110384"/>
+        <c:axId val="306109992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="305060032"/>
+        <c:axId val="306110384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305059248"/>
+        <c:crossAx val="306109992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1163,7 +1163,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="305059248"/>
+        <c:axId val="306109992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305060032"/>
+        <c:crossAx val="306110384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1871,11 +1871,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="306694624"/>
-        <c:axId val="306696976"/>
+        <c:axId val="307569848"/>
+        <c:axId val="307574160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="306694624"/>
+        <c:axId val="307569848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,7 +1997,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306696976"/>
+        <c:crossAx val="307574160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2005,7 +2005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="306696976"/>
+        <c:axId val="307574160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306694624"/>
+        <c:crossAx val="307569848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3626,8 +3626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3693,7 +3693,7 @@
         <v>110</v>
       </c>
       <c r="H2" s="27">
-        <f>(D2+E2+F2+G2)/4</f>
+        <f t="shared" ref="H2:H24" si="0">(D2+E2+F2+G2)/4</f>
         <v>105</v>
       </c>
       <c r="I2" s="27" t="s">
@@ -3723,7 +3723,7 @@
         <v>98</v>
       </c>
       <c r="H3" s="27">
-        <f>(D3+E3+F3+G3)/4</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="I3" s="27" t="s">
@@ -3753,7 +3753,7 @@
         <v>93</v>
       </c>
       <c r="H4" s="27">
-        <f>(D4+E4+F4+G4)/4</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="I4" s="27" t="s">
@@ -3783,7 +3783,7 @@
         <v>90</v>
       </c>
       <c r="H5" s="27">
-        <f>(D5+E5+F5+G5)/4</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="I5" s="27" t="s">
@@ -3813,7 +3813,7 @@
         <v>80</v>
       </c>
       <c r="H6" s="27">
-        <f>(D6+E6+F6+G6)/4</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="I6" s="27" t="s">
@@ -3843,7 +3843,7 @@
         <v>65</v>
       </c>
       <c r="H7" s="27">
-        <f>(D7+E7+F7+G7)/4</f>
+        <f t="shared" si="0"/>
         <v>88.75</v>
       </c>
       <c r="I7" s="27" t="s">
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="27">
-        <f>(D8+E8+F8+G8)/4</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="I8" s="27" t="s">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="27">
-        <f>(D9+E9+F9+G9)/4</f>
+        <f t="shared" si="0"/>
         <v>71.25</v>
       </c>
       <c r="I9" s="27" t="s">
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="27">
-        <f>(D10+E10+F10+G10)/4</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="I10" s="27" t="s">
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="27">
-        <f>(D11+E11+F11+G11)/4</f>
+        <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
       <c r="I11" s="27" t="s">
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="25">
-        <f>(D12+E12+F12+G12)/4</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="I12" s="25" t="s">
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="25">
-        <f>(D13+E13+F13+G13)/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="25" t="s">
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="25">
-        <f>(D14+E14+F14+G14)/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="25" t="s">
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="25">
-        <f>(D15+E15+F15+G15)/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="25" t="s">
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="25">
-        <f>(D16+E16+F16+G16)/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="25" t="s">
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="25">
-        <f>(D17+E17+F17+G17)/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="25" t="s">
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="25">
-        <f>(D18+E18+F18+G18)/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="25" t="s">
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="25">
-        <f>(D19+E19+F19+G19)/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="25" t="s">
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="25">
-        <f>(D20+E20+F20+G20)/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="25" t="s">
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="25">
-        <f>(D21+E21+F21+G21)/4</f>
+        <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
       <c r="I21" s="25" t="s">
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="25">
-        <f>(D22+E22+F22+G22)/4</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="I22" s="6"/>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="25">
-        <f>(D23+E23+F23+G23)/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="6"/>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="25">
-        <f>(D24+E24+F24+G24)/4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="6"/>
@@ -4386,9 +4386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="A2:K12"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="A3:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4823,60 +4823,60 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="28">
-        <v>82</v>
-      </c>
-      <c r="C13" s="25" t="s">
+      <c r="A13" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="27">
+        <v>84</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="9">
-        <v>76</v>
-      </c>
-      <c r="E13" s="25">
-        <v>0</v>
+      <c r="D13" s="6"/>
+      <c r="E13" s="27">
+        <v>70</v>
       </c>
       <c r="F13" s="27">
         <v>100</v>
       </c>
-      <c r="G13" s="25">
-        <v>0</v>
+      <c r="G13" s="27">
+        <v>100</v>
       </c>
       <c r="H13" s="25">
         <v>0</v>
       </c>
-      <c r="I13" s="25">
-        <v>0</v>
-      </c>
-      <c r="J13" s="25">
+      <c r="I13" s="27">
+        <v>95</v>
+      </c>
+      <c r="J13" s="27">
         <f>(E13+F13+G13+H13+I13)/5</f>
-        <v>20</v>
-      </c>
-      <c r="K13" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="25">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="B14" s="28">
+        <v>82</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="27">
-        <v>75</v>
+      <c r="D14" s="9">
+        <v>76</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0</v>
       </c>
       <c r="F14" s="27">
         <v>100</v>
       </c>
-      <c r="G14" s="27">
-        <v>100</v>
+      <c r="G14" s="25">
+        <v>0</v>
       </c>
       <c r="H14" s="25">
         <v>0</v>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="J14" s="25">
         <f>(E14+F14+G14+H14+I14)/5</f>
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="K14" s="25" t="s">
         <v>72</v>
@@ -4894,17 +4894,17 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="27">
-        <v>84</v>
+        <v>43</v>
+      </c>
+      <c r="B15" s="25">
+        <v>47</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="27">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F15" s="27">
         <v>100</v>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="J15" s="25">
         <f>(E15+F15+G15+H15+I15)/5</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" s="25" t="s">
         <v>72</v>
